--- a/results/191010-AB43-1911_2019_FPAW_-_Mixed-Pairs.xlsx
+++ b/results/191010-AB43-1911_2019_FPAW_-_Mixed-Pairs.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20379"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kolja\Nextcloud\Documents\Frisbee\Rankings\Turniere-berechnet\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\FpaExcelResultsParser\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{ADBBB20B-B242-4543-BB27-42CFD400A208}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A078633D-C027-4E7F-918F-3A4F2D10F5DA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1950" yWindow="450" windowWidth="21960" windowHeight="15750" xr2:uid="{A81A89D5-7FB9-4CD2-BFD9-65ABCA4F9F65}"/>
   </bookViews>
@@ -20,7 +20,7 @@
   </externalReferences>
   <definedNames>
     <definedName name="_berechnungsmonat">[1]workflow!$E$3</definedName>
-    <definedName name="_FilterDatabase" localSheetId="0" hidden="1">'AB43'!#REF!</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'AB43'!#REF!</definedName>
     <definedName name="All_Divisions">[1]Dropdown!$G$3:$G$8</definedName>
     <definedName name="Bonus">[1]Bonus!$A$2:$B$201</definedName>
     <definedName name="Categories">[1]Dropdown!$D$3:$D$8</definedName>
@@ -30,7 +30,7 @@
     <definedName name="players_sorted2">'[1]Open Rankings'!$C$4:$C$2000</definedName>
     <definedName name="pointscale">[1]event_details!$FB$104:$IT$105</definedName>
     <definedName name="Pools">[1]Dropdown!$F$3:$F$10</definedName>
-    <definedName name="Print_Area" localSheetId="0">'AB43'!$A$1:$S$83</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'AB43'!$A$1:$S$83</definedName>
     <definedName name="Rounds">[1]Dropdown!$E$3:$E$8</definedName>
     <definedName name="table_countrycodes">[1]Dropdown!$I$3:$J$208</definedName>
     <definedName name="Women_Divisions">[1]Dropdown!$B$3:$B$5</definedName>
@@ -40,12 +40,6 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -246,10 +240,10 @@
     <t>Eventcode:</t>
   </si>
   <si>
-    <t>FPAW 2019 - Mixed Pairs</t>
+    <t>Event:</t>
   </si>
   <si>
-    <t>Event:</t>
+    <t>FPAW 2019</t>
   </si>
 </sst>
 </file>
@@ -1219,172 +1213,423 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
       <protection hidden="1"/>
     </xf>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" textRotation="90" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="41" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment textRotation="90" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyProtection="1">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="59" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="61" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="62" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="2" fontId="6" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="6" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="6" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection hidden="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
       <protection hidden="1"/>
     </xf>
@@ -1392,440 +1637,189 @@
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" textRotation="90" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="51" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="2" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
       <protection hidden="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="51" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="41" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment textRotation="90" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
       <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyProtection="1">
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="59" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
-      <protection hidden="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="7" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="7" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="7" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="7" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
       <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="6" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="6" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="9" fontId="2" fillId="6" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="9" fontId="2" fillId="6" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="6" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="7" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="7" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="7" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="61" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="62" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection hidden="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="6">
     <dxf>
@@ -11591,7 +11585,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -11892,98 +11886,98 @@
   </sheetPr>
   <dimension ref="A1:AH83"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A43" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection activeCell="G28" sqref="G28"/>
-      <selection pane="topRight" activeCell="W78" sqref="W78"/>
+      <selection pane="topRight" activeCell="U6" sqref="U6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.59765625" defaultRowHeight="10.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="2.42578125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="3.42578125" style="1" customWidth="1"/>
-    <col min="3" max="4" width="8.7109375" style="1" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="4.5703125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="36.5703125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="2.3984375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="3.3984375" style="1" customWidth="1"/>
+    <col min="3" max="4" width="8.73046875" style="1" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="4.59765625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="36.59765625" style="1" customWidth="1"/>
     <col min="7" max="7" width="8" style="1" customWidth="1"/>
-    <col min="8" max="8" width="5.28515625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="7.28515625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="5.265625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="7.265625" style="1" customWidth="1"/>
     <col min="10" max="10" width="1" style="1" customWidth="1"/>
-    <col min="11" max="17" width="7.28515625" style="1" customWidth="1"/>
-    <col min="18" max="18" width="7.28515625" style="4" customWidth="1"/>
-    <col min="19" max="19" width="7.85546875" style="1" customWidth="1"/>
-    <col min="20" max="20" width="2.42578125" style="1" customWidth="1"/>
-    <col min="21" max="21" width="18.7109375" style="1" customWidth="1"/>
-    <col min="22" max="22" width="6.42578125" style="1" customWidth="1"/>
-    <col min="23" max="23" width="8.85546875" style="3" customWidth="1"/>
-    <col min="24" max="24" width="8.85546875" style="1" customWidth="1"/>
-    <col min="25" max="25" width="2.7109375" style="1" customWidth="1"/>
-    <col min="26" max="26" width="11.5703125" style="2"/>
-    <col min="27" max="16384" width="11.5703125" style="1"/>
+    <col min="11" max="17" width="7.265625" style="1" customWidth="1"/>
+    <col min="18" max="18" width="7.265625" style="4" customWidth="1"/>
+    <col min="19" max="19" width="7.86328125" style="1" customWidth="1"/>
+    <col min="20" max="20" width="2.3984375" style="1" customWidth="1"/>
+    <col min="21" max="21" width="18.73046875" style="1" customWidth="1"/>
+    <col min="22" max="22" width="6.3984375" style="1" customWidth="1"/>
+    <col min="23" max="23" width="8.86328125" style="3" customWidth="1"/>
+    <col min="24" max="24" width="8.86328125" style="1" customWidth="1"/>
+    <col min="25" max="25" width="2.73046875" style="1" customWidth="1"/>
+    <col min="26" max="26" width="11.59765625" style="2"/>
+    <col min="27" max="16384" width="11.59765625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="12" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="1:26" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="172" t="s">
+    <row r="1" spans="1:26" ht="10.9" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="2" spans="1:26" ht="11.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B2" s="106" t="s">
+        <v>64</v>
+      </c>
+      <c r="C2" s="105"/>
+      <c r="D2" s="105"/>
+      <c r="E2" s="105"/>
+      <c r="F2" s="105"/>
+      <c r="G2" s="105"/>
+      <c r="H2" s="105"/>
+      <c r="I2" s="105"/>
+      <c r="J2" s="161" t="s">
         <v>65</v>
       </c>
-      <c r="C2" s="171"/>
-      <c r="D2" s="171"/>
-      <c r="E2" s="171"/>
-      <c r="F2" s="171"/>
-      <c r="G2" s="171"/>
-      <c r="H2" s="171"/>
-      <c r="I2" s="171"/>
-      <c r="J2" s="170" t="s">
-        <v>64</v>
-      </c>
-      <c r="K2" s="169"/>
-      <c r="L2" s="169"/>
-      <c r="M2" s="169"/>
-      <c r="N2" s="169"/>
-      <c r="O2" s="169"/>
-      <c r="P2" s="169"/>
-      <c r="Q2" s="169"/>
-      <c r="R2" s="169"/>
-      <c r="S2" s="168"/>
+      <c r="K2" s="162"/>
+      <c r="L2" s="162"/>
+      <c r="M2" s="162"/>
+      <c r="N2" s="162"/>
+      <c r="O2" s="162"/>
+      <c r="P2" s="162"/>
+      <c r="Q2" s="162"/>
+      <c r="R2" s="162"/>
+      <c r="S2" s="163"/>
     </row>
-    <row r="3" spans="1:26" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="153" t="s">
+    <row r="3" spans="1:26" ht="11.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B3" s="101" t="s">
         <v>63</v>
       </c>
-      <c r="C3" s="152"/>
-      <c r="D3" s="152"/>
-      <c r="E3" s="152"/>
-      <c r="F3" s="152"/>
-      <c r="G3" s="152"/>
-      <c r="H3" s="152"/>
-      <c r="I3" s="152"/>
-      <c r="J3" s="151" t="s">
+      <c r="C3" s="100"/>
+      <c r="D3" s="100"/>
+      <c r="E3" s="100"/>
+      <c r="F3" s="100"/>
+      <c r="G3" s="100"/>
+      <c r="H3" s="100"/>
+      <c r="I3" s="100"/>
+      <c r="J3" s="148" t="s">
         <v>62</v>
       </c>
-      <c r="K3" s="150"/>
-      <c r="L3" s="150"/>
-      <c r="M3" s="150"/>
-      <c r="N3" s="150"/>
-      <c r="O3" s="150"/>
-      <c r="P3" s="150"/>
-      <c r="Q3" s="150"/>
-      <c r="R3" s="150"/>
-      <c r="S3" s="149"/>
-      <c r="V3" s="167"/>
+      <c r="K3" s="149"/>
+      <c r="L3" s="149"/>
+      <c r="M3" s="149"/>
+      <c r="N3" s="149"/>
+      <c r="O3" s="149"/>
+      <c r="P3" s="149"/>
+      <c r="Q3" s="149"/>
+      <c r="R3" s="149"/>
+      <c r="S3" s="150"/>
+      <c r="V3" s="104"/>
     </row>
-    <row r="4" spans="1:26" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="157" t="s">
+    <row r="4" spans="1:26" ht="10.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B4" s="103" t="s">
         <v>61</v>
       </c>
-      <c r="C4" s="156"/>
-      <c r="D4" s="156"/>
-      <c r="E4" s="156"/>
-      <c r="F4" s="156"/>
-      <c r="G4" s="156"/>
-      <c r="H4" s="156"/>
-      <c r="I4" s="156"/>
-      <c r="J4" s="166">
+      <c r="C4" s="102"/>
+      <c r="D4" s="102"/>
+      <c r="E4" s="102"/>
+      <c r="F4" s="102"/>
+      <c r="G4" s="102"/>
+      <c r="H4" s="102"/>
+      <c r="I4" s="102"/>
+      <c r="J4" s="164">
         <v>43748</v>
       </c>
       <c r="K4" s="165"/>
@@ -11994,470 +11988,470 @@
       <c r="P4" s="165"/>
       <c r="Q4" s="165"/>
       <c r="R4" s="165"/>
-      <c r="S4" s="164"/>
+      <c r="S4" s="166"/>
     </row>
-    <row r="5" spans="1:26" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="153" t="s">
+    <row r="5" spans="1:26" ht="10.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B5" s="101" t="s">
         <v>60</v>
       </c>
-      <c r="C5" s="152"/>
-      <c r="D5" s="152"/>
-      <c r="E5" s="152"/>
-      <c r="F5" s="152"/>
-      <c r="G5" s="152"/>
-      <c r="H5" s="152"/>
-      <c r="I5" s="152"/>
-      <c r="J5" s="151" t="s">
+      <c r="C5" s="100"/>
+      <c r="D5" s="100"/>
+      <c r="E5" s="100"/>
+      <c r="F5" s="100"/>
+      <c r="G5" s="100"/>
+      <c r="H5" s="100"/>
+      <c r="I5" s="100"/>
+      <c r="J5" s="148" t="s">
         <v>59</v>
       </c>
-      <c r="K5" s="150"/>
-      <c r="L5" s="150"/>
-      <c r="M5" s="150"/>
-      <c r="N5" s="150"/>
-      <c r="O5" s="150"/>
-      <c r="P5" s="150"/>
-      <c r="Q5" s="150"/>
-      <c r="R5" s="150"/>
-      <c r="S5" s="149"/>
+      <c r="K5" s="149"/>
+      <c r="L5" s="149"/>
+      <c r="M5" s="149"/>
+      <c r="N5" s="149"/>
+      <c r="O5" s="149"/>
+      <c r="P5" s="149"/>
+      <c r="Q5" s="149"/>
+      <c r="R5" s="149"/>
+      <c r="S5" s="150"/>
     </row>
-    <row r="6" spans="1:26" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="157" t="s">
+    <row r="6" spans="1:26" ht="10.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B6" s="103" t="s">
         <v>58</v>
       </c>
-      <c r="C6" s="156"/>
-      <c r="D6" s="156"/>
-      <c r="E6" s="156"/>
-      <c r="F6" s="156"/>
-      <c r="G6" s="156"/>
-      <c r="H6" s="156"/>
-      <c r="I6" s="156"/>
-      <c r="J6" s="163">
+      <c r="C6" s="102"/>
+      <c r="D6" s="102"/>
+      <c r="E6" s="102"/>
+      <c r="F6" s="102"/>
+      <c r="G6" s="102"/>
+      <c r="H6" s="102"/>
+      <c r="I6" s="102"/>
+      <c r="J6" s="167">
         <v>24</v>
       </c>
-      <c r="K6" s="162"/>
-      <c r="L6" s="162"/>
-      <c r="M6" s="162"/>
-      <c r="N6" s="162"/>
-      <c r="O6" s="162"/>
-      <c r="P6" s="162"/>
-      <c r="Q6" s="162"/>
-      <c r="R6" s="162"/>
-      <c r="S6" s="161"/>
+      <c r="K6" s="168"/>
+      <c r="L6" s="168"/>
+      <c r="M6" s="168"/>
+      <c r="N6" s="168"/>
+      <c r="O6" s="168"/>
+      <c r="P6" s="168"/>
+      <c r="Q6" s="168"/>
+      <c r="R6" s="168"/>
+      <c r="S6" s="169"/>
     </row>
-    <row r="7" spans="1:26" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="153" t="s">
+    <row r="7" spans="1:26" ht="10.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B7" s="101" t="s">
         <v>57</v>
       </c>
-      <c r="C7" s="152"/>
-      <c r="D7" s="152"/>
-      <c r="E7" s="152"/>
-      <c r="F7" s="152"/>
-      <c r="G7" s="152"/>
-      <c r="H7" s="152"/>
-      <c r="I7" s="152"/>
-      <c r="J7" s="160">
+      <c r="C7" s="100"/>
+      <c r="D7" s="100"/>
+      <c r="E7" s="100"/>
+      <c r="F7" s="100"/>
+      <c r="G7" s="100"/>
+      <c r="H7" s="100"/>
+      <c r="I7" s="100"/>
+      <c r="J7" s="170">
         <v>1.6</v>
       </c>
-      <c r="K7" s="159"/>
-      <c r="L7" s="159"/>
-      <c r="M7" s="159"/>
-      <c r="N7" s="159"/>
-      <c r="O7" s="159"/>
-      <c r="P7" s="159"/>
-      <c r="Q7" s="159"/>
-      <c r="R7" s="159"/>
-      <c r="S7" s="158"/>
+      <c r="K7" s="171"/>
+      <c r="L7" s="171"/>
+      <c r="M7" s="171"/>
+      <c r="N7" s="171"/>
+      <c r="O7" s="171"/>
+      <c r="P7" s="171"/>
+      <c r="Q7" s="171"/>
+      <c r="R7" s="171"/>
+      <c r="S7" s="172"/>
     </row>
-    <row r="8" spans="1:26" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="157" t="s">
+    <row r="8" spans="1:26" ht="10.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B8" s="103" t="s">
         <v>56</v>
       </c>
-      <c r="C8" s="156"/>
-      <c r="D8" s="156"/>
-      <c r="E8" s="156"/>
-      <c r="F8" s="156"/>
-      <c r="G8" s="156"/>
-      <c r="H8" s="156"/>
-      <c r="I8" s="156"/>
-      <c r="J8" s="145" t="s">
+      <c r="C8" s="102"/>
+      <c r="D8" s="102"/>
+      <c r="E8" s="102"/>
+      <c r="F8" s="102"/>
+      <c r="G8" s="102"/>
+      <c r="H8" s="102"/>
+      <c r="I8" s="102"/>
+      <c r="J8" s="151" t="s">
         <v>55</v>
       </c>
-      <c r="K8" s="144"/>
-      <c r="L8" s="144"/>
-      <c r="M8" s="144"/>
-      <c r="N8" s="144"/>
-      <c r="O8" s="144"/>
-      <c r="P8" s="144" t="s">
+      <c r="K8" s="152"/>
+      <c r="L8" s="152"/>
+      <c r="M8" s="152"/>
+      <c r="N8" s="152"/>
+      <c r="O8" s="152"/>
+      <c r="P8" s="152" t="s">
         <v>54</v>
       </c>
-      <c r="Q8" s="144"/>
-      <c r="R8" s="144"/>
-      <c r="S8" s="143"/>
+      <c r="Q8" s="152"/>
+      <c r="R8" s="152"/>
+      <c r="S8" s="153"/>
     </row>
-    <row r="9" spans="1:26" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="153" t="s">
+    <row r="9" spans="1:26" ht="11.1" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B9" s="101" t="s">
         <v>53</v>
       </c>
-      <c r="C9" s="152"/>
-      <c r="D9" s="152"/>
-      <c r="E9" s="152"/>
-      <c r="F9" s="152"/>
-      <c r="G9" s="152"/>
-      <c r="H9" s="152"/>
-      <c r="I9" s="152"/>
-      <c r="J9" s="151" t="s">
+      <c r="C9" s="100"/>
+      <c r="D9" s="100"/>
+      <c r="E9" s="100"/>
+      <c r="F9" s="100"/>
+      <c r="G9" s="100"/>
+      <c r="H9" s="100"/>
+      <c r="I9" s="100"/>
+      <c r="J9" s="148" t="s">
         <v>52</v>
       </c>
-      <c r="K9" s="150"/>
-      <c r="L9" s="150"/>
-      <c r="M9" s="150"/>
-      <c r="N9" s="150"/>
-      <c r="O9" s="150"/>
-      <c r="P9" s="150" t="s">
+      <c r="K9" s="149"/>
+      <c r="L9" s="149"/>
+      <c r="M9" s="149"/>
+      <c r="N9" s="149"/>
+      <c r="O9" s="149"/>
+      <c r="P9" s="149" t="s">
         <v>32</v>
       </c>
-      <c r="Q9" s="150"/>
-      <c r="R9" s="150"/>
-      <c r="S9" s="149"/>
+      <c r="Q9" s="149"/>
+      <c r="R9" s="149"/>
+      <c r="S9" s="150"/>
     </row>
-    <row r="10" spans="1:26" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="157" t="s">
+    <row r="10" spans="1:26" ht="11.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B10" s="103" t="s">
         <v>51</v>
       </c>
-      <c r="C10" s="156"/>
-      <c r="D10" s="156"/>
-      <c r="E10" s="156"/>
-      <c r="F10" s="156"/>
-      <c r="G10" s="156"/>
-      <c r="H10" s="156"/>
-      <c r="I10" s="156"/>
-      <c r="J10" s="145"/>
-      <c r="K10" s="144"/>
-      <c r="L10" s="144"/>
-      <c r="M10" s="144"/>
-      <c r="N10" s="144"/>
-      <c r="O10" s="144"/>
-      <c r="P10" s="155"/>
-      <c r="Q10" s="155"/>
-      <c r="R10" s="155"/>
-      <c r="S10" s="154"/>
+      <c r="C10" s="102"/>
+      <c r="D10" s="102"/>
+      <c r="E10" s="102"/>
+      <c r="F10" s="102"/>
+      <c r="G10" s="102"/>
+      <c r="H10" s="102"/>
+      <c r="I10" s="102"/>
+      <c r="J10" s="151"/>
+      <c r="K10" s="152"/>
+      <c r="L10" s="152"/>
+      <c r="M10" s="152"/>
+      <c r="N10" s="152"/>
+      <c r="O10" s="152"/>
+      <c r="P10" s="159"/>
+      <c r="Q10" s="159"/>
+      <c r="R10" s="159"/>
+      <c r="S10" s="160"/>
     </row>
-    <row r="11" spans="1:26" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="153" t="s">
+    <row r="11" spans="1:26" ht="11.1" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B11" s="101" t="s">
         <v>50</v>
       </c>
-      <c r="C11" s="152"/>
-      <c r="D11" s="152"/>
-      <c r="E11" s="152"/>
-      <c r="F11" s="152"/>
-      <c r="G11" s="152"/>
-      <c r="H11" s="152"/>
-      <c r="I11" s="152"/>
-      <c r="J11" s="151">
+      <c r="C11" s="100"/>
+      <c r="D11" s="100"/>
+      <c r="E11" s="100"/>
+      <c r="F11" s="100"/>
+      <c r="G11" s="100"/>
+      <c r="H11" s="100"/>
+      <c r="I11" s="100"/>
+      <c r="J11" s="148">
         <v>1911</v>
       </c>
-      <c r="K11" s="150"/>
-      <c r="L11" s="150"/>
-      <c r="M11" s="150"/>
-      <c r="N11" s="150"/>
-      <c r="O11" s="150"/>
-      <c r="P11" s="150"/>
-      <c r="Q11" s="150"/>
-      <c r="R11" s="150"/>
-      <c r="S11" s="149"/>
-      <c r="W11" s="148"/>
+      <c r="K11" s="149"/>
+      <c r="L11" s="149"/>
+      <c r="M11" s="149"/>
+      <c r="N11" s="149"/>
+      <c r="O11" s="149"/>
+      <c r="P11" s="149"/>
+      <c r="Q11" s="149"/>
+      <c r="R11" s="149"/>
+      <c r="S11" s="150"/>
+      <c r="W11" s="99"/>
     </row>
-    <row r="12" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="147" t="s">
+    <row r="12" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B12" s="98" t="s">
         <v>49</v>
       </c>
-      <c r="C12" s="146"/>
-      <c r="D12" s="146"/>
-      <c r="E12" s="146"/>
-      <c r="F12" s="146"/>
-      <c r="G12" s="146"/>
-      <c r="H12" s="146"/>
-      <c r="I12" s="146"/>
-      <c r="J12" s="145" t="s">
+      <c r="C12" s="97"/>
+      <c r="D12" s="97"/>
+      <c r="E12" s="97"/>
+      <c r="F12" s="97"/>
+      <c r="G12" s="97"/>
+      <c r="H12" s="97"/>
+      <c r="I12" s="97"/>
+      <c r="J12" s="151" t="s">
         <v>48</v>
       </c>
-      <c r="K12" s="144"/>
-      <c r="L12" s="144"/>
-      <c r="M12" s="144"/>
-      <c r="N12" s="144"/>
-      <c r="O12" s="144"/>
-      <c r="P12" s="144"/>
-      <c r="Q12" s="144"/>
-      <c r="R12" s="144"/>
-      <c r="S12" s="143"/>
-      <c r="U12" s="142"/>
+      <c r="K12" s="152"/>
+      <c r="L12" s="152"/>
+      <c r="M12" s="152"/>
+      <c r="N12" s="152"/>
+      <c r="O12" s="152"/>
+      <c r="P12" s="152"/>
+      <c r="Q12" s="152"/>
+      <c r="R12" s="152"/>
+      <c r="S12" s="153"/>
+      <c r="U12" s="96"/>
     </row>
-    <row r="13" spans="1:26" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="141"/>
-      <c r="C13" s="140"/>
-      <c r="D13" s="140"/>
-      <c r="E13" s="140"/>
-      <c r="F13" s="140"/>
-      <c r="G13" s="140"/>
-      <c r="H13" s="140"/>
-      <c r="I13" s="140"/>
-      <c r="J13" s="139"/>
-      <c r="K13" s="138"/>
-      <c r="L13" s="138"/>
-      <c r="M13" s="138"/>
-      <c r="N13" s="138"/>
-      <c r="O13" s="138"/>
-      <c r="P13" s="138"/>
-      <c r="Q13" s="138"/>
-      <c r="R13" s="138"/>
-      <c r="S13" s="137"/>
+    <row r="13" spans="1:26" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B13" s="154"/>
+      <c r="C13" s="155"/>
+      <c r="D13" s="155"/>
+      <c r="E13" s="155"/>
+      <c r="F13" s="155"/>
+      <c r="G13" s="155"/>
+      <c r="H13" s="155"/>
+      <c r="I13" s="155"/>
+      <c r="J13" s="156"/>
+      <c r="K13" s="157"/>
+      <c r="L13" s="157"/>
+      <c r="M13" s="157"/>
+      <c r="N13" s="157"/>
+      <c r="O13" s="157"/>
+      <c r="P13" s="157"/>
+      <c r="Q13" s="157"/>
+      <c r="R13" s="157"/>
+      <c r="S13" s="158"/>
     </row>
-    <row r="14" spans="1:26" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="X14" s="87"/>
+    <row r="14" spans="1:26" ht="10.9" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="X14" s="74"/>
     </row>
-    <row r="15" spans="1:26" s="87" customFormat="1" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="136" t="s">
+    <row r="15" spans="1:26" s="74" customFormat="1" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B15" s="95" t="s">
         <v>32</v>
       </c>
-      <c r="C15" s="91"/>
-      <c r="D15" s="91"/>
-      <c r="E15" s="91"/>
-      <c r="F15" s="132"/>
-      <c r="G15" s="93" t="s">
+      <c r="C15" s="78"/>
+      <c r="D15" s="78"/>
+      <c r="E15" s="78"/>
+      <c r="F15" s="91"/>
+      <c r="G15" s="80" t="s">
         <v>47</v>
       </c>
-      <c r="H15" s="92"/>
-      <c r="I15" s="92"/>
-      <c r="J15" s="90"/>
-      <c r="K15" s="89"/>
-      <c r="L15" s="89"/>
-      <c r="M15" s="89"/>
-      <c r="N15" s="89"/>
-      <c r="O15" s="89"/>
-      <c r="P15" s="89"/>
-      <c r="Q15" s="89"/>
-      <c r="R15" s="88"/>
-      <c r="S15" s="88"/>
-      <c r="U15" s="86"/>
-      <c r="V15" s="85"/>
-      <c r="W15" s="84"/>
-      <c r="X15" s="83"/>
-      <c r="Y15" s="82">
+      <c r="H15" s="79"/>
+      <c r="I15" s="79"/>
+      <c r="J15" s="77"/>
+      <c r="K15" s="76"/>
+      <c r="L15" s="76"/>
+      <c r="M15" s="76"/>
+      <c r="N15" s="76"/>
+      <c r="O15" s="76"/>
+      <c r="P15" s="76"/>
+      <c r="Q15" s="76"/>
+      <c r="R15" s="75"/>
+      <c r="S15" s="75"/>
+      <c r="U15" s="117"/>
+      <c r="V15" s="118"/>
+      <c r="W15" s="119"/>
+      <c r="X15" s="73"/>
+      <c r="Y15" s="72">
         <v>1</v>
       </c>
-      <c r="Z15" s="135"/>
+      <c r="Z15" s="94"/>
     </row>
-    <row r="16" spans="1:26" ht="57" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="134"/>
-      <c r="B16" s="81" t="s">
+    <row r="16" spans="1:26" ht="57" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A16" s="93"/>
+      <c r="B16" s="71" t="s">
         <v>16</v>
       </c>
-      <c r="C16" s="80"/>
-      <c r="D16" s="80"/>
-      <c r="E16" s="80" t="s">
+      <c r="C16" s="70"/>
+      <c r="D16" s="70"/>
+      <c r="E16" s="70" t="s">
         <v>29</v>
       </c>
-      <c r="F16" s="79" t="s">
+      <c r="F16" s="69" t="s">
         <v>28</v>
       </c>
-      <c r="G16" s="78" t="s">
+      <c r="G16" s="68" t="s">
         <v>27</v>
       </c>
-      <c r="H16" s="78" t="s">
+      <c r="H16" s="68" t="s">
         <v>26</v>
       </c>
-      <c r="I16" s="77" t="s">
+      <c r="I16" s="67" t="s">
         <v>25</v>
       </c>
-      <c r="J16" s="63"/>
-      <c r="K16" s="76" t="s">
+      <c r="J16" s="56"/>
+      <c r="K16" s="66" t="s">
         <v>24</v>
       </c>
-      <c r="L16" s="75" t="s">
-        <v>0</v>
-      </c>
-      <c r="M16" s="75" t="s">
-        <v>0</v>
-      </c>
-      <c r="N16" s="75" t="s">
-        <v>0</v>
-      </c>
-      <c r="O16" s="75" t="s">
-        <v>0</v>
-      </c>
-      <c r="P16" s="75" t="s">
+      <c r="L16" s="65" t="s">
+        <v>0</v>
+      </c>
+      <c r="M16" s="65" t="s">
+        <v>0</v>
+      </c>
+      <c r="N16" s="65" t="s">
+        <v>0</v>
+      </c>
+      <c r="O16" s="65" t="s">
+        <v>0</v>
+      </c>
+      <c r="P16" s="65" t="s">
         <v>23</v>
       </c>
-      <c r="Q16" s="75" t="s">
+      <c r="Q16" s="65" t="s">
         <v>46</v>
       </c>
-      <c r="R16" s="74" t="s">
+      <c r="R16" s="64" t="s">
         <v>22</v>
       </c>
-      <c r="S16" s="73" t="s">
+      <c r="S16" s="63" t="s">
         <v>21</v>
       </c>
-      <c r="U16" s="72" t="s">
+      <c r="U16" s="111" t="s">
         <v>20</v>
       </c>
-      <c r="V16" s="71"/>
-      <c r="W16" s="70"/>
-      <c r="X16" s="69"/>
+      <c r="V16" s="112"/>
+      <c r="W16" s="113"/>
+      <c r="X16" s="62"/>
       <c r="Y16" s="10"/>
     </row>
-    <row r="17" spans="1:25" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="134"/>
-      <c r="B17" s="68"/>
-      <c r="C17" s="67"/>
-      <c r="D17" s="67"/>
-      <c r="E17" s="67"/>
-      <c r="F17" s="66" t="s">
-        <v>0</v>
-      </c>
-      <c r="G17" s="65"/>
-      <c r="H17" s="65"/>
-      <c r="I17" s="64"/>
-      <c r="J17" s="63"/>
-      <c r="K17" s="62"/>
-      <c r="L17" s="60"/>
-      <c r="M17" s="60"/>
-      <c r="N17" s="60"/>
-      <c r="O17" s="60"/>
-      <c r="P17" s="61"/>
-      <c r="Q17" s="60"/>
-      <c r="R17" s="59"/>
-      <c r="S17" s="58"/>
-      <c r="U17" s="57" t="s">
+    <row r="17" spans="1:25" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A17" s="93"/>
+      <c r="B17" s="61"/>
+      <c r="C17" s="60"/>
+      <c r="D17" s="60"/>
+      <c r="E17" s="60"/>
+      <c r="F17" s="59" t="s">
+        <v>0</v>
+      </c>
+      <c r="G17" s="58"/>
+      <c r="H17" s="58"/>
+      <c r="I17" s="57"/>
+      <c r="J17" s="56"/>
+      <c r="K17" s="55"/>
+      <c r="L17" s="53"/>
+      <c r="M17" s="53"/>
+      <c r="N17" s="53"/>
+      <c r="O17" s="53"/>
+      <c r="P17" s="54"/>
+      <c r="Q17" s="53"/>
+      <c r="R17" s="52"/>
+      <c r="S17" s="51"/>
+      <c r="U17" s="50" t="s">
         <v>19</v>
       </c>
-      <c r="V17" s="56" t="s">
+      <c r="V17" s="49" t="s">
         <v>18</v>
       </c>
-      <c r="W17" s="55" t="s">
+      <c r="W17" s="48" t="s">
         <v>17</v>
       </c>
-      <c r="X17" s="54" t="s">
+      <c r="X17" s="47" t="s">
         <v>16</v>
       </c>
       <c r="Y17" s="10"/>
     </row>
-    <row r="18" spans="1:25" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="52">
+    <row r="18" spans="1:25" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B18" s="114">
         <v>1</v>
       </c>
-      <c r="C18" s="45">
+      <c r="C18" s="42">
         <v>1</v>
       </c>
-      <c r="D18" s="45">
+      <c r="D18" s="42">
         <v>1</v>
       </c>
-      <c r="E18" s="45">
+      <c r="E18" s="42">
         <v>381</v>
       </c>
-      <c r="F18" s="44" t="s">
+      <c r="F18" s="41" t="s">
         <v>44</v>
       </c>
-      <c r="G18" s="43" t="s">
+      <c r="G18" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="H18" s="43">
+      <c r="H18" s="40">
         <v>62</v>
       </c>
-      <c r="I18" s="42">
+      <c r="I18" s="39">
         <v>1</v>
       </c>
       <c r="J18" s="2"/>
-      <c r="K18" s="41">
+      <c r="K18" s="38">
         <v>200</v>
       </c>
-      <c r="L18" s="39" t="s">
-        <v>0</v>
-      </c>
-      <c r="M18" s="39" t="s">
-        <v>0</v>
-      </c>
-      <c r="N18" s="39" t="s">
-        <v>0</v>
-      </c>
-      <c r="O18" s="39" t="s">
-        <v>0</v>
-      </c>
-      <c r="P18" s="40">
+      <c r="L18" s="36" t="s">
+        <v>0</v>
+      </c>
+      <c r="M18" s="36" t="s">
+        <v>0</v>
+      </c>
+      <c r="N18" s="36" t="s">
+        <v>0</v>
+      </c>
+      <c r="O18" s="36" t="s">
+        <v>0</v>
+      </c>
+      <c r="P18" s="37">
         <v>2.5</v>
       </c>
-      <c r="Q18" s="39">
+      <c r="Q18" s="36">
         <v>35.5</v>
       </c>
-      <c r="R18" s="38">
+      <c r="R18" s="35">
         <v>238</v>
       </c>
-      <c r="S18" s="15" t="s">
+      <c r="S18" s="110" t="s">
         <v>4</v>
       </c>
-      <c r="U18" s="53" t="s">
+      <c r="U18" s="46" t="s">
         <v>44</v>
       </c>
-      <c r="V18" s="27">
+      <c r="V18" s="25">
         <v>38</v>
       </c>
-      <c r="W18" s="26">
+      <c r="W18" s="24">
         <v>200</v>
       </c>
-      <c r="X18" s="25">
+      <c r="X18" s="23">
         <v>1</v>
       </c>
       <c r="Y18" s="10"/>
     </row>
-    <row r="19" spans="1:25" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="51"/>
-      <c r="C19" s="36">
+    <row r="19" spans="1:25" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B19" s="115"/>
+      <c r="C19" s="34">
         <v>1</v>
       </c>
-      <c r="D19" s="36">
+      <c r="D19" s="34">
         <v>1</v>
       </c>
-      <c r="E19" s="36">
+      <c r="E19" s="34">
         <v>813</v>
       </c>
-      <c r="F19" s="35" t="s">
+      <c r="F19" s="33" t="s">
         <v>43</v>
       </c>
-      <c r="G19" s="34" t="s">
+      <c r="G19" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="H19" s="34">
+      <c r="H19" s="32">
         <v>2</v>
       </c>
-      <c r="I19" s="33">
+      <c r="I19" s="31">
         <v>10</v>
       </c>
       <c r="J19" s="2"/>
-      <c r="K19" s="32">
+      <c r="K19" s="30">
         <v>200</v>
       </c>
-      <c r="L19" s="30" t="s">
-        <v>0</v>
-      </c>
-      <c r="M19" s="30" t="s">
-        <v>0</v>
-      </c>
-      <c r="N19" s="30" t="s">
-        <v>0</v>
-      </c>
-      <c r="O19" s="30" t="s">
-        <v>0</v>
-      </c>
-      <c r="P19" s="31">
+      <c r="L19" s="28" t="s">
+        <v>0</v>
+      </c>
+      <c r="M19" s="28" t="s">
+        <v>0</v>
+      </c>
+      <c r="N19" s="28" t="s">
+        <v>0</v>
+      </c>
+      <c r="O19" s="28" t="s">
+        <v>0</v>
+      </c>
+      <c r="P19" s="29">
         <v>2.5</v>
       </c>
-      <c r="Q19" s="30">
+      <c r="Q19" s="28">
         <v>35.5</v>
       </c>
-      <c r="R19" s="29">
+      <c r="R19" s="27">
         <v>238</v>
       </c>
-      <c r="S19" s="15"/>
-      <c r="U19" s="133" t="s">
+      <c r="S19" s="110"/>
+      <c r="U19" s="92" t="s">
         <v>43</v>
       </c>
       <c r="V19" s="13">
@@ -12471,121 +12465,121 @@
       </c>
       <c r="Y19" s="10"/>
     </row>
-    <row r="20" spans="1:25" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="50"/>
-      <c r="C20" s="23">
+    <row r="20" spans="1:25" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B20" s="116"/>
+      <c r="C20" s="22">
         <v>1</v>
       </c>
-      <c r="D20" s="23">
+      <c r="D20" s="22">
         <v>1</v>
       </c>
-      <c r="E20" s="23" t="s">
-        <v>0</v>
-      </c>
-      <c r="F20" s="22"/>
-      <c r="G20" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="H20" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="I20" s="20" t="s">
+      <c r="E20" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="F20" s="21"/>
+      <c r="G20" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="H20" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="I20" s="19" t="s">
         <v>0</v>
       </c>
       <c r="J20" s="2"/>
-      <c r="K20" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="L20" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="M20" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="N20" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="O20" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="P20" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q20" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="R20" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="S20" s="15"/>
-      <c r="U20" s="53" t="s">
-        <v>0</v>
-      </c>
-      <c r="V20" s="27" t="s">
-        <v>0</v>
-      </c>
-      <c r="W20" s="26" t="s">
-        <v>0</v>
-      </c>
-      <c r="X20" s="25">
+      <c r="K20" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="L20" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="M20" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="N20" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="O20" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="P20" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="R20" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="S20" s="110"/>
+      <c r="U20" s="46" t="s">
+        <v>0</v>
+      </c>
+      <c r="V20" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="W20" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="X20" s="23">
         <v>1</v>
       </c>
       <c r="Y20" s="10"/>
     </row>
-    <row r="21" spans="1:25" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="52">
+    <row r="21" spans="1:25" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B21" s="114">
         <v>2</v>
       </c>
-      <c r="C21" s="45">
+      <c r="C21" s="42">
         <v>2</v>
       </c>
-      <c r="D21" s="45">
+      <c r="D21" s="42">
         <v>2</v>
       </c>
-      <c r="E21" s="45">
+      <c r="E21" s="42">
         <v>1081</v>
       </c>
-      <c r="F21" s="44" t="s">
+      <c r="F21" s="41" t="s">
         <v>42</v>
       </c>
-      <c r="G21" s="43" t="s">
+      <c r="G21" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="H21" s="43">
+      <c r="H21" s="40">
         <v>63</v>
       </c>
-      <c r="I21" s="42">
+      <c r="I21" s="39">
         <v>1</v>
       </c>
       <c r="J21" s="2"/>
-      <c r="K21" s="41">
+      <c r="K21" s="38">
         <v>160</v>
       </c>
-      <c r="L21" s="39" t="s">
-        <v>0</v>
-      </c>
-      <c r="M21" s="39" t="s">
-        <v>0</v>
-      </c>
-      <c r="N21" s="39" t="s">
-        <v>0</v>
-      </c>
-      <c r="O21" s="39" t="s">
-        <v>0</v>
-      </c>
-      <c r="P21" s="40">
+      <c r="L21" s="36" t="s">
+        <v>0</v>
+      </c>
+      <c r="M21" s="36" t="s">
+        <v>0</v>
+      </c>
+      <c r="N21" s="36" t="s">
+        <v>0</v>
+      </c>
+      <c r="O21" s="36" t="s">
+        <v>0</v>
+      </c>
+      <c r="P21" s="37">
         <v>2.5</v>
       </c>
-      <c r="Q21" s="39">
+      <c r="Q21" s="36">
         <v>29.5</v>
       </c>
-      <c r="R21" s="38">
+      <c r="R21" s="35">
         <v>192</v>
       </c>
-      <c r="S21" s="15" t="s">
+      <c r="S21" s="110" t="s">
         <v>4</v>
       </c>
-      <c r="U21" s="133" t="s">
+      <c r="U21" s="92" t="s">
         <v>42</v>
       </c>
       <c r="V21" s="13">
@@ -12599,117 +12593,117 @@
       </c>
       <c r="Y21" s="10"/>
     </row>
-    <row r="22" spans="1:25" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="51"/>
-      <c r="C22" s="36">
+    <row r="22" spans="1:25" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B22" s="115"/>
+      <c r="C22" s="34">
         <v>2</v>
       </c>
-      <c r="D22" s="36">
+      <c r="D22" s="34">
         <v>2</v>
       </c>
-      <c r="E22" s="36">
+      <c r="E22" s="34">
         <v>913</v>
       </c>
-      <c r="F22" s="35" t="s">
+      <c r="F22" s="33" t="s">
         <v>41</v>
       </c>
-      <c r="G22" s="34" t="s">
+      <c r="G22" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="H22" s="34">
+      <c r="H22" s="32">
         <v>16</v>
       </c>
-      <c r="I22" s="33">
+      <c r="I22" s="31">
         <v>5</v>
       </c>
       <c r="J22" s="2"/>
-      <c r="K22" s="32">
+      <c r="K22" s="30">
         <v>160</v>
       </c>
-      <c r="L22" s="30" t="s">
-        <v>0</v>
-      </c>
-      <c r="M22" s="30" t="s">
-        <v>0</v>
-      </c>
-      <c r="N22" s="30" t="s">
-        <v>0</v>
-      </c>
-      <c r="O22" s="30" t="s">
-        <v>0</v>
-      </c>
-      <c r="P22" s="31">
+      <c r="L22" s="28" t="s">
+        <v>0</v>
+      </c>
+      <c r="M22" s="28" t="s">
+        <v>0</v>
+      </c>
+      <c r="N22" s="28" t="s">
+        <v>0</v>
+      </c>
+      <c r="O22" s="28" t="s">
+        <v>0</v>
+      </c>
+      <c r="P22" s="29">
         <v>2.5</v>
       </c>
-      <c r="Q22" s="30">
+      <c r="Q22" s="28">
         <v>29.5</v>
       </c>
-      <c r="R22" s="29">
+      <c r="R22" s="27">
         <v>192</v>
       </c>
-      <c r="S22" s="15"/>
-      <c r="U22" s="53" t="s">
+      <c r="S22" s="110"/>
+      <c r="U22" s="46" t="s">
         <v>41</v>
       </c>
-      <c r="V22" s="27">
+      <c r="V22" s="25">
         <v>32</v>
       </c>
-      <c r="W22" s="26" t="s">
-        <v>0</v>
-      </c>
-      <c r="X22" s="25">
+      <c r="W22" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="X22" s="23">
         <v>2</v>
       </c>
       <c r="Y22" s="10"/>
     </row>
-    <row r="23" spans="1:25" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="50"/>
-      <c r="C23" s="23">
+    <row r="23" spans="1:25" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B23" s="116"/>
+      <c r="C23" s="22">
         <v>2</v>
       </c>
-      <c r="D23" s="23">
+      <c r="D23" s="22">
         <v>2</v>
       </c>
-      <c r="E23" s="23" t="s">
-        <v>0</v>
-      </c>
-      <c r="F23" s="22"/>
-      <c r="G23" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="H23" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="I23" s="20" t="s">
+      <c r="E23" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="F23" s="21"/>
+      <c r="G23" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="H23" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="I23" s="19" t="s">
         <v>0</v>
       </c>
       <c r="J23" s="2"/>
-      <c r="K23" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="L23" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="M23" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="N23" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="O23" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="P23" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q23" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="R23" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="S23" s="15"/>
-      <c r="U23" s="133" t="s">
+      <c r="K23" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="L23" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="M23" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="N23" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="O23" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="P23" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q23" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="R23" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="S23" s="110"/>
+      <c r="U23" s="92" t="s">
         <v>0</v>
       </c>
       <c r="V23" s="13" t="s">
@@ -12723,123 +12717,123 @@
       </c>
       <c r="Y23" s="10"/>
     </row>
-    <row r="24" spans="1:25" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="46">
+    <row r="24" spans="1:25" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B24" s="107">
         <v>3</v>
       </c>
-      <c r="C24" s="45">
+      <c r="C24" s="42">
         <v>3</v>
       </c>
-      <c r="D24" s="45">
+      <c r="D24" s="42">
         <v>3</v>
       </c>
-      <c r="E24" s="45">
+      <c r="E24" s="42">
         <v>344</v>
       </c>
-      <c r="F24" s="44" t="s">
+      <c r="F24" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="G24" s="43" t="s">
+      <c r="G24" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="H24" s="43">
+      <c r="H24" s="40">
         <v>135</v>
       </c>
-      <c r="I24" s="42">
+      <c r="I24" s="39">
         <v>0.5</v>
       </c>
       <c r="J24" s="2"/>
-      <c r="K24" s="41">
+      <c r="K24" s="38">
         <v>128</v>
       </c>
-      <c r="L24" s="39" t="s">
-        <v>0</v>
-      </c>
-      <c r="M24" s="39" t="s">
-        <v>0</v>
-      </c>
-      <c r="N24" s="39" t="s">
-        <v>0</v>
-      </c>
-      <c r="O24" s="39" t="s">
-        <v>0</v>
-      </c>
-      <c r="P24" s="40">
+      <c r="L24" s="36" t="s">
+        <v>0</v>
+      </c>
+      <c r="M24" s="36" t="s">
+        <v>0</v>
+      </c>
+      <c r="N24" s="36" t="s">
+        <v>0</v>
+      </c>
+      <c r="O24" s="36" t="s">
+        <v>0</v>
+      </c>
+      <c r="P24" s="37">
         <v>7.5</v>
       </c>
-      <c r="Q24" s="39">
+      <c r="Q24" s="36">
         <v>21.5</v>
       </c>
-      <c r="R24" s="38">
+      <c r="R24" s="35">
         <v>157</v>
       </c>
-      <c r="S24" s="15" t="s">
+      <c r="S24" s="110" t="s">
         <v>4</v>
       </c>
-      <c r="U24" s="53" t="s">
+      <c r="U24" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="V24" s="27">
+      <c r="V24" s="25">
         <v>29</v>
       </c>
-      <c r="W24" s="26">
+      <c r="W24" s="24">
         <v>128</v>
       </c>
-      <c r="X24" s="25">
+      <c r="X24" s="23">
         <v>3</v>
       </c>
       <c r="Y24" s="10"/>
     </row>
-    <row r="25" spans="1:25" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="37"/>
-      <c r="C25" s="36">
+    <row r="25" spans="1:25" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B25" s="108"/>
+      <c r="C25" s="34">
         <v>3</v>
       </c>
-      <c r="D25" s="36">
+      <c r="D25" s="34">
         <v>3</v>
       </c>
-      <c r="E25" s="36">
+      <c r="E25" s="34">
         <v>38</v>
       </c>
-      <c r="F25" s="35" t="s">
+      <c r="F25" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="G25" s="34" t="s">
+      <c r="G25" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="H25" s="34">
+      <c r="H25" s="32">
         <v>7</v>
       </c>
-      <c r="I25" s="33">
+      <c r="I25" s="31">
         <v>7.5</v>
       </c>
       <c r="J25" s="2"/>
-      <c r="K25" s="32">
+      <c r="K25" s="30">
         <v>128</v>
       </c>
-      <c r="L25" s="30" t="s">
-        <v>0</v>
-      </c>
-      <c r="M25" s="30" t="s">
-        <v>0</v>
-      </c>
-      <c r="N25" s="30" t="s">
-        <v>0</v>
-      </c>
-      <c r="O25" s="30" t="s">
-        <v>0</v>
-      </c>
-      <c r="P25" s="31">
+      <c r="L25" s="28" t="s">
+        <v>0</v>
+      </c>
+      <c r="M25" s="28" t="s">
+        <v>0</v>
+      </c>
+      <c r="N25" s="28" t="s">
+        <v>0</v>
+      </c>
+      <c r="O25" s="28" t="s">
+        <v>0</v>
+      </c>
+      <c r="P25" s="29">
         <v>7.5</v>
       </c>
-      <c r="Q25" s="30">
+      <c r="Q25" s="28">
         <v>21.5</v>
       </c>
-      <c r="R25" s="29">
+      <c r="R25" s="27">
         <v>157</v>
       </c>
-      <c r="S25" s="15"/>
-      <c r="U25" s="133" t="s">
+      <c r="S25" s="110"/>
+      <c r="U25" s="92" t="s">
         <v>12</v>
       </c>
       <c r="V25" s="13">
@@ -12853,121 +12847,121 @@
       </c>
       <c r="Y25" s="10"/>
     </row>
-    <row r="26" spans="1:25" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="24"/>
-      <c r="C26" s="23">
+    <row r="26" spans="1:25" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B26" s="109"/>
+      <c r="C26" s="22">
         <v>3</v>
       </c>
-      <c r="D26" s="23">
+      <c r="D26" s="22">
         <v>3</v>
       </c>
-      <c r="E26" s="23" t="s">
-        <v>0</v>
-      </c>
-      <c r="F26" s="22"/>
-      <c r="G26" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="H26" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="I26" s="20" t="s">
+      <c r="E26" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="F26" s="21"/>
+      <c r="G26" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="H26" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="I26" s="19" t="s">
         <v>0</v>
       </c>
       <c r="J26" s="2"/>
-      <c r="K26" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="L26" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="M26" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="N26" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="O26" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="P26" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q26" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="R26" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="S26" s="15"/>
-      <c r="U26" s="53" t="s">
-        <v>0</v>
-      </c>
-      <c r="V26" s="27" t="s">
-        <v>0</v>
-      </c>
-      <c r="W26" s="26" t="s">
-        <v>0</v>
-      </c>
-      <c r="X26" s="25">
+      <c r="K26" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="L26" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="M26" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="N26" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="O26" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="P26" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q26" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="R26" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="S26" s="110"/>
+      <c r="U26" s="46" t="s">
+        <v>0</v>
+      </c>
+      <c r="V26" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="W26" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="X26" s="23">
         <v>3</v>
       </c>
       <c r="Y26" s="10"/>
     </row>
-    <row r="27" spans="1:25" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="46">
+    <row r="27" spans="1:25" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B27" s="107">
         <v>4</v>
       </c>
-      <c r="C27" s="45">
+      <c r="C27" s="42">
         <v>4</v>
       </c>
-      <c r="D27" s="45">
+      <c r="D27" s="42">
         <v>4</v>
       </c>
-      <c r="E27" s="45">
+      <c r="E27" s="42">
         <v>321</v>
       </c>
-      <c r="F27" s="44" t="s">
+      <c r="F27" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="G27" s="43" t="s">
+      <c r="G27" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="H27" s="43">
+      <c r="H27" s="40">
         <v>213</v>
       </c>
-      <c r="I27" s="42">
+      <c r="I27" s="39">
         <v>0</v>
       </c>
       <c r="J27" s="2"/>
-      <c r="K27" s="41">
+      <c r="K27" s="38">
         <v>112</v>
       </c>
-      <c r="L27" s="39" t="s">
-        <v>0</v>
-      </c>
-      <c r="M27" s="39" t="s">
-        <v>0</v>
-      </c>
-      <c r="N27" s="39" t="s">
-        <v>0</v>
-      </c>
-      <c r="O27" s="39" t="s">
-        <v>0</v>
-      </c>
-      <c r="P27" s="40">
+      <c r="L27" s="36" t="s">
+        <v>0</v>
+      </c>
+      <c r="M27" s="36" t="s">
+        <v>0</v>
+      </c>
+      <c r="N27" s="36" t="s">
+        <v>0</v>
+      </c>
+      <c r="O27" s="36" t="s">
+        <v>0</v>
+      </c>
+      <c r="P27" s="37">
         <v>7.5</v>
       </c>
-      <c r="Q27" s="39">
+      <c r="Q27" s="36">
         <v>11.5</v>
       </c>
-      <c r="R27" s="38">
+      <c r="R27" s="35">
         <v>131</v>
       </c>
-      <c r="S27" s="15" t="s">
+      <c r="S27" s="110" t="s">
         <v>4</v>
       </c>
-      <c r="U27" s="133" t="s">
+      <c r="U27" s="92" t="s">
         <v>15</v>
       </c>
       <c r="V27" s="13">
@@ -12981,117 +12975,117 @@
       </c>
       <c r="Y27" s="10"/>
     </row>
-    <row r="28" spans="1:25" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="37"/>
-      <c r="C28" s="36">
+    <row r="28" spans="1:25" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B28" s="108"/>
+      <c r="C28" s="34">
         <v>4</v>
       </c>
-      <c r="D28" s="36">
+      <c r="D28" s="34">
         <v>4</v>
       </c>
-      <c r="E28" s="36">
+      <c r="E28" s="34">
         <v>220</v>
       </c>
-      <c r="F28" s="35" t="s">
+      <c r="F28" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="G28" s="34" t="s">
+      <c r="G28" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="H28" s="34">
+      <c r="H28" s="32">
         <v>5</v>
       </c>
-      <c r="I28" s="33">
+      <c r="I28" s="31">
         <v>10</v>
       </c>
       <c r="J28" s="2"/>
-      <c r="K28" s="32">
+      <c r="K28" s="30">
         <v>112</v>
       </c>
-      <c r="L28" s="30" t="s">
-        <v>0</v>
-      </c>
-      <c r="M28" s="30" t="s">
-        <v>0</v>
-      </c>
-      <c r="N28" s="30" t="s">
-        <v>0</v>
-      </c>
-      <c r="O28" s="30" t="s">
-        <v>0</v>
-      </c>
-      <c r="P28" s="31">
+      <c r="L28" s="28" t="s">
+        <v>0</v>
+      </c>
+      <c r="M28" s="28" t="s">
+        <v>0</v>
+      </c>
+      <c r="N28" s="28" t="s">
+        <v>0</v>
+      </c>
+      <c r="O28" s="28" t="s">
+        <v>0</v>
+      </c>
+      <c r="P28" s="29">
         <v>7.5</v>
       </c>
-      <c r="Q28" s="30">
+      <c r="Q28" s="28">
         <v>11.5</v>
       </c>
-      <c r="R28" s="29">
+      <c r="R28" s="27">
         <v>131</v>
       </c>
-      <c r="S28" s="15"/>
-      <c r="U28" s="53" t="s">
+      <c r="S28" s="110"/>
+      <c r="U28" s="46" t="s">
         <v>14</v>
       </c>
-      <c r="V28" s="27">
+      <c r="V28" s="25">
         <v>19</v>
       </c>
-      <c r="W28" s="26" t="s">
-        <v>0</v>
-      </c>
-      <c r="X28" s="25">
+      <c r="W28" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="X28" s="23">
         <v>4</v>
       </c>
       <c r="Y28" s="10"/>
     </row>
-    <row r="29" spans="1:25" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="24"/>
-      <c r="C29" s="23">
+    <row r="29" spans="1:25" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B29" s="109"/>
+      <c r="C29" s="22">
         <v>4</v>
       </c>
-      <c r="D29" s="23">
+      <c r="D29" s="22">
         <v>4</v>
       </c>
-      <c r="E29" s="23" t="s">
-        <v>0</v>
-      </c>
-      <c r="F29" s="22"/>
-      <c r="G29" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="H29" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="I29" s="20" t="s">
+      <c r="E29" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="F29" s="21"/>
+      <c r="G29" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="H29" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="I29" s="19" t="s">
         <v>0</v>
       </c>
       <c r="J29" s="2"/>
-      <c r="K29" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="L29" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="M29" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="N29" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="O29" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="P29" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q29" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="R29" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="S29" s="15"/>
-      <c r="U29" s="133" t="s">
+      <c r="K29" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="L29" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="M29" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="N29" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="O29" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="P29" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q29" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="R29" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="S29" s="110"/>
+      <c r="U29" s="92" t="s">
         <v>0</v>
       </c>
       <c r="V29" s="13" t="s">
@@ -13105,123 +13099,123 @@
       </c>
       <c r="Y29" s="10"/>
     </row>
-    <row r="30" spans="1:25" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="46">
+    <row r="30" spans="1:25" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B30" s="107">
         <v>5</v>
       </c>
-      <c r="C30" s="45">
+      <c r="C30" s="42">
         <v>5</v>
       </c>
-      <c r="D30" s="45">
+      <c r="D30" s="42">
         <v>5</v>
       </c>
-      <c r="E30" s="45">
+      <c r="E30" s="42">
         <v>161</v>
       </c>
-      <c r="F30" s="44" t="s">
+      <c r="F30" s="41" t="s">
         <v>11</v>
       </c>
-      <c r="G30" s="43" t="s">
+      <c r="G30" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="H30" s="43">
+      <c r="H30" s="40">
         <v>77</v>
       </c>
-      <c r="I30" s="42">
+      <c r="I30" s="39">
         <v>1</v>
       </c>
       <c r="J30" s="2"/>
-      <c r="K30" s="41">
+      <c r="K30" s="38">
         <v>96</v>
       </c>
-      <c r="L30" s="39" t="s">
-        <v>0</v>
-      </c>
-      <c r="M30" s="39" t="s">
-        <v>0</v>
-      </c>
-      <c r="N30" s="39" t="s">
-        <v>0</v>
-      </c>
-      <c r="O30" s="39" t="s">
-        <v>0</v>
-      </c>
-      <c r="P30" s="40">
+      <c r="L30" s="36" t="s">
+        <v>0</v>
+      </c>
+      <c r="M30" s="36" t="s">
+        <v>0</v>
+      </c>
+      <c r="N30" s="36" t="s">
+        <v>0</v>
+      </c>
+      <c r="O30" s="36" t="s">
+        <v>0</v>
+      </c>
+      <c r="P30" s="37">
         <v>7.5</v>
       </c>
-      <c r="Q30" s="39">
+      <c r="Q30" s="36">
         <v>8</v>
       </c>
-      <c r="R30" s="38">
+      <c r="R30" s="35">
         <v>111.5</v>
       </c>
-      <c r="S30" s="15" t="s">
+      <c r="S30" s="110" t="s">
         <v>4</v>
       </c>
-      <c r="U30" s="53" t="s">
+      <c r="U30" s="46" t="s">
         <v>11</v>
       </c>
-      <c r="V30" s="27">
+      <c r="V30" s="25">
         <v>15.5</v>
       </c>
-      <c r="W30" s="26">
+      <c r="W30" s="24">
         <v>96</v>
       </c>
-      <c r="X30" s="25">
+      <c r="X30" s="23">
         <v>5</v>
       </c>
       <c r="Y30" s="10"/>
     </row>
-    <row r="31" spans="1:25" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="37"/>
-      <c r="C31" s="36">
+    <row r="31" spans="1:25" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B31" s="108"/>
+      <c r="C31" s="34">
         <v>5</v>
       </c>
-      <c r="D31" s="36">
+      <c r="D31" s="34">
         <v>5</v>
       </c>
-      <c r="E31" s="36">
+      <c r="E31" s="34">
         <v>216</v>
       </c>
-      <c r="F31" s="35" t="s">
+      <c r="F31" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="G31" s="34" t="s">
+      <c r="G31" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="H31" s="34">
+      <c r="H31" s="32">
         <v>26</v>
       </c>
-      <c r="I31" s="33">
+      <c r="I31" s="31">
         <v>2.5</v>
       </c>
       <c r="J31" s="2"/>
-      <c r="K31" s="32">
+      <c r="K31" s="30">
         <v>96</v>
       </c>
-      <c r="L31" s="30" t="s">
-        <v>0</v>
-      </c>
-      <c r="M31" s="30" t="s">
-        <v>0</v>
-      </c>
-      <c r="N31" s="30" t="s">
-        <v>0</v>
-      </c>
-      <c r="O31" s="30" t="s">
-        <v>0</v>
-      </c>
-      <c r="P31" s="31">
+      <c r="L31" s="28" t="s">
+        <v>0</v>
+      </c>
+      <c r="M31" s="28" t="s">
+        <v>0</v>
+      </c>
+      <c r="N31" s="28" t="s">
+        <v>0</v>
+      </c>
+      <c r="O31" s="28" t="s">
+        <v>0</v>
+      </c>
+      <c r="P31" s="29">
         <v>7.5</v>
       </c>
-      <c r="Q31" s="30">
+      <c r="Q31" s="28">
         <v>8</v>
       </c>
-      <c r="R31" s="29">
+      <c r="R31" s="27">
         <v>111.5</v>
       </c>
-      <c r="S31" s="15"/>
-      <c r="U31" s="133" t="s">
+      <c r="S31" s="110"/>
+      <c r="U31" s="92" t="s">
         <v>10</v>
       </c>
       <c r="V31" s="13">
@@ -13235,121 +13229,121 @@
       </c>
       <c r="Y31" s="10"/>
     </row>
-    <row r="32" spans="1:25" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="24"/>
-      <c r="C32" s="23">
+    <row r="32" spans="1:25" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B32" s="109"/>
+      <c r="C32" s="22">
         <v>5</v>
       </c>
-      <c r="D32" s="23">
+      <c r="D32" s="22">
         <v>5</v>
       </c>
-      <c r="E32" s="23" t="s">
-        <v>0</v>
-      </c>
-      <c r="F32" s="22"/>
-      <c r="G32" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="H32" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="I32" s="20" t="s">
+      <c r="E32" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="F32" s="21"/>
+      <c r="G32" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="H32" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="I32" s="19" t="s">
         <v>0</v>
       </c>
       <c r="J32" s="2"/>
-      <c r="K32" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="L32" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="M32" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="N32" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="O32" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="P32" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q32" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="R32" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="S32" s="15"/>
-      <c r="U32" s="53" t="s">
-        <v>0</v>
-      </c>
-      <c r="V32" s="27" t="s">
-        <v>0</v>
-      </c>
-      <c r="W32" s="26" t="s">
-        <v>0</v>
-      </c>
-      <c r="X32" s="25">
+      <c r="K32" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="L32" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="M32" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="N32" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="O32" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="P32" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="R32" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="S32" s="110"/>
+      <c r="U32" s="46" t="s">
+        <v>0</v>
+      </c>
+      <c r="V32" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="W32" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="X32" s="23">
         <v>5</v>
       </c>
       <c r="Y32" s="10"/>
     </row>
-    <row r="33" spans="1:34" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="46">
+    <row r="33" spans="1:34" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B33" s="107">
         <v>6</v>
       </c>
-      <c r="C33" s="45">
+      <c r="C33" s="42">
         <v>6</v>
       </c>
-      <c r="D33" s="45">
+      <c r="D33" s="42">
         <v>6</v>
       </c>
-      <c r="E33" s="45">
+      <c r="E33" s="42">
         <v>576</v>
       </c>
-      <c r="F33" s="44" t="s">
+      <c r="F33" s="41" t="s">
         <v>40</v>
       </c>
-      <c r="G33" s="43" t="s">
+      <c r="G33" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="H33" s="43">
+      <c r="H33" s="40">
         <v>134</v>
       </c>
-      <c r="I33" s="42">
+      <c r="I33" s="39">
         <v>0.5</v>
       </c>
       <c r="J33" s="2"/>
-      <c r="K33" s="41">
+      <c r="K33" s="38">
         <v>80</v>
       </c>
-      <c r="L33" s="39" t="s">
-        <v>0</v>
-      </c>
-      <c r="M33" s="39" t="s">
-        <v>0</v>
-      </c>
-      <c r="N33" s="39" t="s">
-        <v>0</v>
-      </c>
-      <c r="O33" s="39" t="s">
-        <v>0</v>
-      </c>
-      <c r="P33" s="40">
+      <c r="L33" s="36" t="s">
+        <v>0</v>
+      </c>
+      <c r="M33" s="36" t="s">
+        <v>0</v>
+      </c>
+      <c r="N33" s="36" t="s">
+        <v>0</v>
+      </c>
+      <c r="O33" s="36" t="s">
+        <v>0</v>
+      </c>
+      <c r="P33" s="37">
         <v>2.5</v>
       </c>
-      <c r="Q33" s="39">
-        <v>0</v>
-      </c>
-      <c r="R33" s="38">
+      <c r="Q33" s="36">
+        <v>0</v>
+      </c>
+      <c r="R33" s="35">
         <v>82.5</v>
       </c>
-      <c r="S33" s="15" t="s">
+      <c r="S33" s="110" t="s">
         <v>4</v>
       </c>
-      <c r="U33" s="133" t="s">
+      <c r="U33" s="92" t="s">
         <v>40</v>
       </c>
       <c r="V33" s="13">
@@ -13363,117 +13357,117 @@
       </c>
       <c r="Y33" s="10"/>
     </row>
-    <row r="34" spans="1:34" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="37"/>
-      <c r="C34" s="36">
+    <row r="34" spans="1:34" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B34" s="108"/>
+      <c r="C34" s="34">
         <v>6</v>
       </c>
-      <c r="D34" s="36">
+      <c r="D34" s="34">
         <v>6</v>
       </c>
-      <c r="E34" s="36">
+      <c r="E34" s="34">
         <v>534</v>
       </c>
-      <c r="F34" s="35" t="s">
+      <c r="F34" s="33" t="s">
         <v>39</v>
       </c>
-      <c r="G34" s="34" t="s">
+      <c r="G34" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="H34" s="34">
+      <c r="H34" s="32">
         <v>8</v>
       </c>
-      <c r="I34" s="33">
+      <c r="I34" s="31">
         <v>7.5</v>
       </c>
       <c r="J34" s="2"/>
-      <c r="K34" s="32">
+      <c r="K34" s="30">
         <v>80</v>
       </c>
-      <c r="L34" s="30" t="s">
-        <v>0</v>
-      </c>
-      <c r="M34" s="30" t="s">
-        <v>0</v>
-      </c>
-      <c r="N34" s="30" t="s">
-        <v>0</v>
-      </c>
-      <c r="O34" s="30" t="s">
-        <v>0</v>
-      </c>
-      <c r="P34" s="31">
+      <c r="L34" s="28" t="s">
+        <v>0</v>
+      </c>
+      <c r="M34" s="28" t="s">
+        <v>0</v>
+      </c>
+      <c r="N34" s="28" t="s">
+        <v>0</v>
+      </c>
+      <c r="O34" s="28" t="s">
+        <v>0</v>
+      </c>
+      <c r="P34" s="29">
         <v>2.5</v>
       </c>
-      <c r="Q34" s="30">
-        <v>0</v>
-      </c>
-      <c r="R34" s="29">
+      <c r="Q34" s="28">
+        <v>0</v>
+      </c>
+      <c r="R34" s="27">
         <v>82.5</v>
       </c>
-      <c r="S34" s="15"/>
-      <c r="U34" s="53" t="s">
+      <c r="S34" s="110"/>
+      <c r="U34" s="46" t="s">
         <v>39</v>
       </c>
-      <c r="V34" s="27">
+      <c r="V34" s="25">
         <v>2.5</v>
       </c>
-      <c r="W34" s="26" t="s">
-        <v>0</v>
-      </c>
-      <c r="X34" s="25">
+      <c r="W34" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="X34" s="23">
         <v>6</v>
       </c>
       <c r="Y34" s="10"/>
     </row>
-    <row r="35" spans="1:34" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="24"/>
-      <c r="C35" s="23">
+    <row r="35" spans="1:34" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B35" s="109"/>
+      <c r="C35" s="22">
         <v>6</v>
       </c>
-      <c r="D35" s="23">
+      <c r="D35" s="22">
         <v>6</v>
       </c>
-      <c r="E35" s="23" t="s">
-        <v>0</v>
-      </c>
-      <c r="F35" s="22"/>
-      <c r="G35" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="H35" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="I35" s="20" t="s">
+      <c r="E35" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="F35" s="21"/>
+      <c r="G35" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="H35" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="I35" s="19" t="s">
         <v>0</v>
       </c>
       <c r="J35" s="2"/>
-      <c r="K35" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="L35" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="M35" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="N35" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="O35" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="P35" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q35" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="R35" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="S35" s="15"/>
-      <c r="U35" s="133" t="s">
+      <c r="K35" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="L35" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="M35" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="N35" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="O35" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="P35" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q35" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="R35" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="S35" s="110"/>
+      <c r="U35" s="92" t="s">
         <v>0</v>
       </c>
       <c r="V35" s="13" t="s">
@@ -13487,7 +13481,7 @@
       </c>
       <c r="Y35" s="10"/>
     </row>
-    <row r="36" spans="1:34" s="2" customFormat="1" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:34" s="2" customFormat="1" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A36" s="1"/>
       <c r="B36" s="9"/>
       <c r="C36" s="9"/>
@@ -13523,38 +13517,38 @@
       <c r="AG36" s="1"/>
       <c r="AH36" s="1"/>
     </row>
-    <row r="37" spans="1:34" s="2" customFormat="1" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:34" s="2" customFormat="1" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A37" s="1"/>
-      <c r="B37" s="95" t="s">
+      <c r="B37" s="82" t="s">
         <v>32</v>
       </c>
-      <c r="C37" s="94"/>
-      <c r="D37" s="94"/>
-      <c r="E37" s="91"/>
-      <c r="F37" s="132"/>
-      <c r="G37" s="93" t="s">
+      <c r="C37" s="81"/>
+      <c r="D37" s="81"/>
+      <c r="E37" s="78"/>
+      <c r="F37" s="91"/>
+      <c r="G37" s="80" t="s">
         <v>31</v>
       </c>
-      <c r="H37" s="92"/>
-      <c r="I37" s="91" t="s">
+      <c r="H37" s="79"/>
+      <c r="I37" s="78" t="s">
         <v>45</v>
       </c>
-      <c r="J37" s="90"/>
-      <c r="K37" s="89"/>
-      <c r="L37" s="89"/>
-      <c r="M37" s="89"/>
-      <c r="N37" s="89"/>
-      <c r="O37" s="89"/>
-      <c r="P37" s="89"/>
-      <c r="Q37" s="89"/>
-      <c r="R37" s="88"/>
-      <c r="S37" s="88"/>
-      <c r="T37" s="87"/>
-      <c r="U37" s="86"/>
-      <c r="V37" s="85"/>
-      <c r="W37" s="131"/>
-      <c r="X37" s="130"/>
-      <c r="Y37" s="82">
+      <c r="J37" s="77"/>
+      <c r="K37" s="76"/>
+      <c r="L37" s="76"/>
+      <c r="M37" s="76"/>
+      <c r="N37" s="76"/>
+      <c r="O37" s="76"/>
+      <c r="P37" s="76"/>
+      <c r="Q37" s="76"/>
+      <c r="R37" s="75"/>
+      <c r="S37" s="75"/>
+      <c r="T37" s="74"/>
+      <c r="U37" s="117"/>
+      <c r="V37" s="118"/>
+      <c r="W37" s="129"/>
+      <c r="X37" s="90"/>
+      <c r="Y37" s="72">
         <v>2</v>
       </c>
       <c r="AA37" s="1"/>
@@ -13566,17 +13560,17 @@
       <c r="AG37" s="1"/>
       <c r="AH37" s="1"/>
     </row>
-    <row r="38" spans="1:34" s="2" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:34" s="2" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A38" s="1"/>
-      <c r="B38" s="127" t="s">
+      <c r="B38" s="130" t="s">
         <v>16</v>
       </c>
-      <c r="C38" s="67"/>
-      <c r="D38" s="67"/>
+      <c r="C38" s="60"/>
+      <c r="D38" s="60"/>
       <c r="E38" s="126" t="s">
         <v>29</v>
       </c>
-      <c r="F38" s="129" t="s">
+      <c r="F38" s="133" t="s">
         <v>28</v>
       </c>
       <c r="G38" s="126" t="s">
@@ -13585,11 +13579,11 @@
       <c r="H38" s="126" t="s">
         <v>26</v>
       </c>
-      <c r="I38" s="128" t="s">
+      <c r="I38" s="138" t="s">
         <v>25</v>
       </c>
-      <c r="J38" s="117"/>
-      <c r="K38" s="127" t="s">
+      <c r="J38" s="88"/>
+      <c r="K38" s="130" t="s">
         <v>24</v>
       </c>
       <c r="L38" s="126" t="s">
@@ -13610,19 +13604,19 @@
       <c r="Q38" s="126" t="s">
         <v>0</v>
       </c>
-      <c r="R38" s="125" t="s">
+      <c r="R38" s="120" t="s">
         <v>22</v>
       </c>
-      <c r="S38" s="124" t="s">
+      <c r="S38" s="123" t="s">
         <v>21</v>
       </c>
-      <c r="T38" s="87"/>
-      <c r="U38" s="123" t="s">
+      <c r="T38" s="74"/>
+      <c r="U38" s="139" t="s">
         <v>20</v>
       </c>
-      <c r="V38" s="122"/>
-      <c r="W38" s="121"/>
-      <c r="X38" s="58"/>
+      <c r="V38" s="140"/>
+      <c r="W38" s="141"/>
+      <c r="X38" s="51"/>
       <c r="Y38" s="10"/>
       <c r="AA38" s="1"/>
       <c r="AB38" s="1"/>
@@ -13633,43 +13627,43 @@
       <c r="AG38" s="1"/>
       <c r="AH38" s="1"/>
     </row>
-    <row r="39" spans="1:34" s="2" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:34" s="2" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A39" s="1"/>
-      <c r="B39" s="116"/>
-      <c r="C39" s="120"/>
-      <c r="D39" s="120"/>
-      <c r="E39" s="115"/>
-      <c r="F39" s="118"/>
-      <c r="G39" s="119"/>
-      <c r="H39" s="118"/>
-      <c r="I39" s="114"/>
-      <c r="J39" s="117"/>
-      <c r="K39" s="116"/>
-      <c r="L39" s="115" t="s">
-        <v>0</v>
-      </c>
-      <c r="M39" s="115" t="s">
-        <v>0</v>
-      </c>
-      <c r="N39" s="115" t="s">
-        <v>0</v>
-      </c>
-      <c r="O39" s="115" t="s">
-        <v>0</v>
-      </c>
-      <c r="P39" s="115" t="s">
+      <c r="B39" s="131"/>
+      <c r="C39" s="89"/>
+      <c r="D39" s="89"/>
+      <c r="E39" s="127"/>
+      <c r="F39" s="134"/>
+      <c r="G39" s="136"/>
+      <c r="H39" s="134"/>
+      <c r="I39" s="121"/>
+      <c r="J39" s="88"/>
+      <c r="K39" s="131"/>
+      <c r="L39" s="127" t="s">
+        <v>0</v>
+      </c>
+      <c r="M39" s="127" t="s">
+        <v>0</v>
+      </c>
+      <c r="N39" s="127" t="s">
+        <v>0</v>
+      </c>
+      <c r="O39" s="127" t="s">
+        <v>0</v>
+      </c>
+      <c r="P39" s="127" t="s">
         <v>23</v>
       </c>
-      <c r="Q39" s="115" t="s">
-        <v>0</v>
-      </c>
-      <c r="R39" s="114"/>
-      <c r="S39" s="113"/>
-      <c r="T39" s="87"/>
-      <c r="U39" s="112"/>
-      <c r="V39" s="111"/>
-      <c r="W39" s="110"/>
-      <c r="X39" s="109"/>
+      <c r="Q39" s="127" t="s">
+        <v>0</v>
+      </c>
+      <c r="R39" s="121"/>
+      <c r="S39" s="124"/>
+      <c r="T39" s="74"/>
+      <c r="U39" s="142"/>
+      <c r="V39" s="143"/>
+      <c r="W39" s="144"/>
+      <c r="X39" s="87"/>
       <c r="Y39" s="10"/>
       <c r="AA39" s="1"/>
       <c r="AB39" s="1"/>
@@ -13680,43 +13674,43 @@
       <c r="AG39" s="1"/>
       <c r="AH39" s="1"/>
     </row>
-    <row r="40" spans="1:34" s="2" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:34" s="2" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A40" s="1"/>
-      <c r="B40" s="116"/>
-      <c r="C40" s="120"/>
-      <c r="D40" s="120"/>
-      <c r="E40" s="115"/>
-      <c r="F40" s="118"/>
-      <c r="G40" s="119"/>
-      <c r="H40" s="118"/>
-      <c r="I40" s="114"/>
-      <c r="J40" s="117"/>
-      <c r="K40" s="116"/>
-      <c r="L40" s="115" t="s">
-        <v>0</v>
-      </c>
-      <c r="M40" s="115" t="s">
-        <v>0</v>
-      </c>
-      <c r="N40" s="115" t="s">
-        <v>0</v>
-      </c>
-      <c r="O40" s="115" t="s">
-        <v>0</v>
-      </c>
-      <c r="P40" s="115" t="s">
+      <c r="B40" s="131"/>
+      <c r="C40" s="89"/>
+      <c r="D40" s="89"/>
+      <c r="E40" s="127"/>
+      <c r="F40" s="134"/>
+      <c r="G40" s="136"/>
+      <c r="H40" s="134"/>
+      <c r="I40" s="121"/>
+      <c r="J40" s="88"/>
+      <c r="K40" s="131"/>
+      <c r="L40" s="127" t="s">
+        <v>0</v>
+      </c>
+      <c r="M40" s="127" t="s">
+        <v>0</v>
+      </c>
+      <c r="N40" s="127" t="s">
+        <v>0</v>
+      </c>
+      <c r="O40" s="127" t="s">
+        <v>0</v>
+      </c>
+      <c r="P40" s="127" t="s">
         <v>23</v>
       </c>
-      <c r="Q40" s="115" t="s">
-        <v>0</v>
-      </c>
-      <c r="R40" s="114"/>
-      <c r="S40" s="113"/>
-      <c r="T40" s="87"/>
-      <c r="U40" s="112"/>
-      <c r="V40" s="111"/>
-      <c r="W40" s="110"/>
-      <c r="X40" s="109"/>
+      <c r="Q40" s="127" t="s">
+        <v>0</v>
+      </c>
+      <c r="R40" s="121"/>
+      <c r="S40" s="124"/>
+      <c r="T40" s="74"/>
+      <c r="U40" s="142"/>
+      <c r="V40" s="143"/>
+      <c r="W40" s="144"/>
+      <c r="X40" s="87"/>
       <c r="Y40" s="10"/>
       <c r="AA40" s="1"/>
       <c r="AB40" s="1"/>
@@ -13727,194 +13721,194 @@
       <c r="AG40" s="1"/>
       <c r="AH40" s="1"/>
     </row>
-    <row r="41" spans="1:34" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="105"/>
-      <c r="C41" s="108"/>
-      <c r="D41" s="108"/>
-      <c r="E41" s="104"/>
-      <c r="F41" s="106"/>
-      <c r="G41" s="107"/>
-      <c r="H41" s="106"/>
-      <c r="I41" s="103"/>
-      <c r="J41" s="63"/>
-      <c r="K41" s="105"/>
-      <c r="L41" s="104" t="s">
-        <v>0</v>
-      </c>
-      <c r="M41" s="104" t="s">
-        <v>0</v>
-      </c>
-      <c r="N41" s="104" t="s">
-        <v>0</v>
-      </c>
-      <c r="O41" s="104" t="s">
-        <v>0</v>
-      </c>
-      <c r="P41" s="104" t="s">
+    <row r="41" spans="1:34" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B41" s="132"/>
+      <c r="C41" s="86"/>
+      <c r="D41" s="86"/>
+      <c r="E41" s="128"/>
+      <c r="F41" s="135"/>
+      <c r="G41" s="137"/>
+      <c r="H41" s="135"/>
+      <c r="I41" s="122"/>
+      <c r="J41" s="56"/>
+      <c r="K41" s="132"/>
+      <c r="L41" s="128" t="s">
+        <v>0</v>
+      </c>
+      <c r="M41" s="128" t="s">
+        <v>0</v>
+      </c>
+      <c r="N41" s="128" t="s">
+        <v>0</v>
+      </c>
+      <c r="O41" s="128" t="s">
+        <v>0</v>
+      </c>
+      <c r="P41" s="128" t="s">
         <v>23</v>
       </c>
-      <c r="Q41" s="104" t="s">
-        <v>0</v>
-      </c>
-      <c r="R41" s="103"/>
-      <c r="S41" s="102"/>
-      <c r="U41" s="101"/>
-      <c r="V41" s="100"/>
-      <c r="W41" s="99"/>
-      <c r="X41" s="98"/>
+      <c r="Q41" s="128" t="s">
+        <v>0</v>
+      </c>
+      <c r="R41" s="122"/>
+      <c r="S41" s="125"/>
+      <c r="U41" s="145"/>
+      <c r="V41" s="146"/>
+      <c r="W41" s="147"/>
+      <c r="X41" s="85"/>
       <c r="Y41" s="10"/>
     </row>
-    <row r="42" spans="1:34" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B42" s="68"/>
-      <c r="C42" s="67"/>
-      <c r="D42" s="67"/>
-      <c r="E42" s="67"/>
-      <c r="F42" s="66" t="s">
-        <v>0</v>
-      </c>
-      <c r="G42" s="65"/>
-      <c r="H42" s="65"/>
-      <c r="I42" s="64"/>
-      <c r="J42" s="63"/>
-      <c r="K42" s="62"/>
-      <c r="L42" s="60"/>
-      <c r="M42" s="60"/>
-      <c r="N42" s="60"/>
-      <c r="O42" s="60"/>
-      <c r="P42" s="61"/>
-      <c r="Q42" s="60"/>
-      <c r="R42" s="59"/>
-      <c r="S42" s="58"/>
-      <c r="U42" s="57" t="s">
+    <row r="42" spans="1:34" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B42" s="61"/>
+      <c r="C42" s="60"/>
+      <c r="D42" s="60"/>
+      <c r="E42" s="60"/>
+      <c r="F42" s="59" t="s">
+        <v>0</v>
+      </c>
+      <c r="G42" s="58"/>
+      <c r="H42" s="58"/>
+      <c r="I42" s="57"/>
+      <c r="J42" s="56"/>
+      <c r="K42" s="55"/>
+      <c r="L42" s="53"/>
+      <c r="M42" s="53"/>
+      <c r="N42" s="53"/>
+      <c r="O42" s="53"/>
+      <c r="P42" s="54"/>
+      <c r="Q42" s="53"/>
+      <c r="R42" s="52"/>
+      <c r="S42" s="51"/>
+      <c r="U42" s="50" t="s">
         <v>19</v>
       </c>
-      <c r="V42" s="56" t="s">
+      <c r="V42" s="49" t="s">
         <v>18</v>
       </c>
-      <c r="W42" s="55" t="s">
+      <c r="W42" s="48" t="s">
         <v>17</v>
       </c>
-      <c r="X42" s="54" t="s">
+      <c r="X42" s="47" t="s">
         <v>16</v>
       </c>
       <c r="Y42" s="10"/>
     </row>
-    <row r="43" spans="1:34" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B43" s="52">
+    <row r="43" spans="1:34" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B43" s="114">
         <v>1</v>
       </c>
-      <c r="C43" s="45">
+      <c r="C43" s="42">
         <v>1</v>
       </c>
-      <c r="D43" s="45">
-        <v>0</v>
-      </c>
-      <c r="E43" s="45">
+      <c r="D43" s="42">
+        <v>0</v>
+      </c>
+      <c r="E43" s="42">
         <v>381</v>
       </c>
-      <c r="F43" s="44" t="s">
+      <c r="F43" s="41" t="s">
         <v>44</v>
       </c>
-      <c r="G43" s="43" t="s">
+      <c r="G43" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="H43" s="43">
+      <c r="H43" s="40">
         <v>62</v>
       </c>
-      <c r="I43" s="42">
+      <c r="I43" s="39">
         <v>1</v>
       </c>
       <c r="J43" s="2"/>
-      <c r="K43" s="41" t="s">
-        <v>0</v>
-      </c>
-      <c r="L43" s="39" t="s">
-        <v>0</v>
-      </c>
-      <c r="M43" s="39" t="s">
-        <v>0</v>
-      </c>
-      <c r="N43" s="39" t="s">
-        <v>0</v>
-      </c>
-      <c r="O43" s="39" t="s">
-        <v>0</v>
-      </c>
-      <c r="P43" s="40" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q43" s="39" t="s">
-        <v>0</v>
-      </c>
-      <c r="R43" s="38">
-        <v>0</v>
-      </c>
-      <c r="S43" s="15" t="s">
+      <c r="K43" s="38" t="s">
+        <v>0</v>
+      </c>
+      <c r="L43" s="36" t="s">
+        <v>0</v>
+      </c>
+      <c r="M43" s="36" t="s">
+        <v>0</v>
+      </c>
+      <c r="N43" s="36" t="s">
+        <v>0</v>
+      </c>
+      <c r="O43" s="36" t="s">
+        <v>0</v>
+      </c>
+      <c r="P43" s="37" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q43" s="36" t="s">
+        <v>0</v>
+      </c>
+      <c r="R43" s="35">
+        <v>0</v>
+      </c>
+      <c r="S43" s="110" t="s">
         <v>4</v>
       </c>
-      <c r="U43" s="53" t="s">
-        <v>0</v>
-      </c>
-      <c r="V43" s="27">
-        <v>0</v>
-      </c>
-      <c r="W43" s="26" t="s">
-        <v>0</v>
-      </c>
-      <c r="X43" s="25" t="s">
+      <c r="U43" s="46" t="s">
+        <v>0</v>
+      </c>
+      <c r="V43" s="25">
+        <v>0</v>
+      </c>
+      <c r="W43" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="X43" s="23" t="s">
         <v>0</v>
       </c>
       <c r="Y43" s="10"/>
     </row>
-    <row r="44" spans="1:34" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B44" s="51"/>
-      <c r="C44" s="36">
+    <row r="44" spans="1:34" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B44" s="115"/>
+      <c r="C44" s="34">
         <v>1</v>
       </c>
-      <c r="D44" s="36">
-        <v>0</v>
-      </c>
-      <c r="E44" s="36">
+      <c r="D44" s="34">
+        <v>0</v>
+      </c>
+      <c r="E44" s="34">
         <v>813</v>
       </c>
-      <c r="F44" s="35" t="s">
+      <c r="F44" s="33" t="s">
         <v>43</v>
       </c>
-      <c r="G44" s="34" t="s">
+      <c r="G44" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="H44" s="34">
+      <c r="H44" s="32">
         <v>2</v>
       </c>
-      <c r="I44" s="33">
+      <c r="I44" s="31">
         <v>10</v>
       </c>
       <c r="J44" s="2"/>
-      <c r="K44" s="32" t="s">
-        <v>0</v>
-      </c>
-      <c r="L44" s="30" t="s">
-        <v>0</v>
-      </c>
-      <c r="M44" s="30" t="s">
-        <v>0</v>
-      </c>
-      <c r="N44" s="30" t="s">
-        <v>0</v>
-      </c>
-      <c r="O44" s="30" t="s">
-        <v>0</v>
-      </c>
-      <c r="P44" s="31" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q44" s="30" t="s">
-        <v>0</v>
-      </c>
-      <c r="R44" s="29">
-        <v>0</v>
-      </c>
-      <c r="S44" s="15"/>
+      <c r="K44" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="L44" s="28" t="s">
+        <v>0</v>
+      </c>
+      <c r="M44" s="28" t="s">
+        <v>0</v>
+      </c>
+      <c r="N44" s="28" t="s">
+        <v>0</v>
+      </c>
+      <c r="O44" s="28" t="s">
+        <v>0</v>
+      </c>
+      <c r="P44" s="29" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q44" s="28" t="s">
+        <v>0</v>
+      </c>
+      <c r="R44" s="27">
+        <v>0</v>
+      </c>
+      <c r="S44" s="110"/>
       <c r="U44" s="14" t="s">
         <v>0</v>
       </c>
@@ -13929,120 +13923,120 @@
       </c>
       <c r="Y44" s="10"/>
     </row>
-    <row r="45" spans="1:34" s="87" customFormat="1" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B45" s="50"/>
-      <c r="C45" s="23">
+    <row r="45" spans="1:34" s="74" customFormat="1" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B45" s="116"/>
+      <c r="C45" s="22">
         <v>1</v>
       </c>
-      <c r="D45" s="23">
-        <v>0</v>
-      </c>
-      <c r="E45" s="23" t="s">
-        <v>0</v>
-      </c>
-      <c r="F45" s="22"/>
-      <c r="G45" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="H45" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="I45" s="20" t="s">
+      <c r="D45" s="22">
+        <v>0</v>
+      </c>
+      <c r="E45" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="F45" s="21"/>
+      <c r="G45" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="H45" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="I45" s="19" t="s">
         <v>0</v>
       </c>
       <c r="J45" s="2"/>
-      <c r="K45" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="L45" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="M45" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="N45" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="O45" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="P45" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q45" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="R45" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="S45" s="15"/>
+      <c r="K45" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="L45" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="M45" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="N45" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="O45" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="P45" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q45" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="R45" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="S45" s="110"/>
       <c r="T45" s="1"/>
-      <c r="U45" s="28" t="s">
-        <v>0</v>
-      </c>
-      <c r="V45" s="27" t="s">
-        <v>0</v>
-      </c>
-      <c r="W45" s="26" t="s">
-        <v>0</v>
-      </c>
-      <c r="X45" s="25" t="s">
+      <c r="U45" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="V45" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="W45" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="X45" s="23" t="s">
         <v>0</v>
       </c>
       <c r="Y45" s="10"/>
       <c r="Z45" s="2"/>
     </row>
-    <row r="46" spans="1:34" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B46" s="52">
+    <row r="46" spans="1:34" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B46" s="114">
         <v>2</v>
       </c>
-      <c r="C46" s="45">
+      <c r="C46" s="42">
         <v>2</v>
       </c>
-      <c r="D46" s="45">
-        <v>0</v>
-      </c>
-      <c r="E46" s="45">
+      <c r="D46" s="42">
+        <v>0</v>
+      </c>
+      <c r="E46" s="42">
         <v>1081</v>
       </c>
-      <c r="F46" s="44" t="s">
+      <c r="F46" s="41" t="s">
         <v>42</v>
       </c>
-      <c r="G46" s="43" t="s">
+      <c r="G46" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="H46" s="43">
+      <c r="H46" s="40">
         <v>63</v>
       </c>
-      <c r="I46" s="42">
+      <c r="I46" s="39">
         <v>1</v>
       </c>
       <c r="J46" s="2"/>
-      <c r="K46" s="41" t="s">
-        <v>0</v>
-      </c>
-      <c r="L46" s="39" t="s">
-        <v>0</v>
-      </c>
-      <c r="M46" s="39" t="s">
-        <v>0</v>
-      </c>
-      <c r="N46" s="39" t="s">
-        <v>0</v>
-      </c>
-      <c r="O46" s="39" t="s">
-        <v>0</v>
-      </c>
-      <c r="P46" s="40" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q46" s="39" t="s">
-        <v>0</v>
-      </c>
-      <c r="R46" s="38">
-        <v>0</v>
-      </c>
-      <c r="S46" s="15" t="s">
+      <c r="K46" s="38" t="s">
+        <v>0</v>
+      </c>
+      <c r="L46" s="36" t="s">
+        <v>0</v>
+      </c>
+      <c r="M46" s="36" t="s">
+        <v>0</v>
+      </c>
+      <c r="N46" s="36" t="s">
+        <v>0</v>
+      </c>
+      <c r="O46" s="36" t="s">
+        <v>0</v>
+      </c>
+      <c r="P46" s="37" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q46" s="36" t="s">
+        <v>0</v>
+      </c>
+      <c r="R46" s="35">
+        <v>0</v>
+      </c>
+      <c r="S46" s="110" t="s">
         <v>4</v>
       </c>
       <c r="U46" s="14" t="s">
@@ -14059,116 +14053,116 @@
       </c>
       <c r="Y46" s="10"/>
     </row>
-    <row r="47" spans="1:34" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B47" s="51"/>
-      <c r="C47" s="36">
+    <row r="47" spans="1:34" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B47" s="115"/>
+      <c r="C47" s="34">
         <v>2</v>
       </c>
-      <c r="D47" s="36">
-        <v>0</v>
-      </c>
-      <c r="E47" s="36">
+      <c r="D47" s="34">
+        <v>0</v>
+      </c>
+      <c r="E47" s="34">
         <v>913</v>
       </c>
-      <c r="F47" s="35" t="s">
+      <c r="F47" s="33" t="s">
         <v>41</v>
       </c>
-      <c r="G47" s="34" t="s">
+      <c r="G47" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="H47" s="34">
+      <c r="H47" s="32">
         <v>16</v>
       </c>
-      <c r="I47" s="33">
+      <c r="I47" s="31">
         <v>5</v>
       </c>
       <c r="J47" s="2"/>
-      <c r="K47" s="32" t="s">
-        <v>0</v>
-      </c>
-      <c r="L47" s="30" t="s">
-        <v>0</v>
-      </c>
-      <c r="M47" s="30" t="s">
-        <v>0</v>
-      </c>
-      <c r="N47" s="30" t="s">
-        <v>0</v>
-      </c>
-      <c r="O47" s="30" t="s">
-        <v>0</v>
-      </c>
-      <c r="P47" s="31" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q47" s="30" t="s">
-        <v>0</v>
-      </c>
-      <c r="R47" s="29">
-        <v>0</v>
-      </c>
-      <c r="S47" s="15"/>
-      <c r="U47" s="28" t="s">
-        <v>0</v>
-      </c>
-      <c r="V47" s="27">
-        <v>0</v>
-      </c>
-      <c r="W47" s="26" t="s">
-        <v>0</v>
-      </c>
-      <c r="X47" s="25" t="s">
+      <c r="K47" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="L47" s="28" t="s">
+        <v>0</v>
+      </c>
+      <c r="M47" s="28" t="s">
+        <v>0</v>
+      </c>
+      <c r="N47" s="28" t="s">
+        <v>0</v>
+      </c>
+      <c r="O47" s="28" t="s">
+        <v>0</v>
+      </c>
+      <c r="P47" s="29" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q47" s="28" t="s">
+        <v>0</v>
+      </c>
+      <c r="R47" s="27">
+        <v>0</v>
+      </c>
+      <c r="S47" s="110"/>
+      <c r="U47" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="V47" s="25">
+        <v>0</v>
+      </c>
+      <c r="W47" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="X47" s="23" t="s">
         <v>0</v>
       </c>
       <c r="Y47" s="10"/>
     </row>
-    <row r="48" spans="1:34" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B48" s="50"/>
-      <c r="C48" s="23">
+    <row r="48" spans="1:34" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B48" s="116"/>
+      <c r="C48" s="22">
         <v>2</v>
       </c>
-      <c r="D48" s="23">
-        <v>0</v>
-      </c>
-      <c r="E48" s="23" t="s">
-        <v>0</v>
-      </c>
-      <c r="F48" s="22"/>
-      <c r="G48" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="H48" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="I48" s="20" t="s">
+      <c r="D48" s="22">
+        <v>0</v>
+      </c>
+      <c r="E48" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="F48" s="21"/>
+      <c r="G48" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="H48" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="I48" s="19" t="s">
         <v>0</v>
       </c>
       <c r="J48" s="2"/>
-      <c r="K48" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="L48" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="M48" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="N48" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="O48" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="P48" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q48" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="R48" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="S48" s="15"/>
+      <c r="K48" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="L48" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="M48" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="N48" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="O48" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="P48" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q48" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="R48" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="S48" s="110"/>
       <c r="U48" s="14" t="s">
         <v>0</v>
       </c>
@@ -14183,122 +14177,122 @@
       </c>
       <c r="Y48" s="10"/>
     </row>
-    <row r="49" spans="1:34" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B49" s="46">
+    <row r="49" spans="1:34" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B49" s="107">
         <v>3</v>
       </c>
-      <c r="C49" s="45">
+      <c r="C49" s="42">
         <v>3</v>
       </c>
-      <c r="D49" s="45">
-        <v>0</v>
-      </c>
-      <c r="E49" s="45">
+      <c r="D49" s="42">
+        <v>0</v>
+      </c>
+      <c r="E49" s="42">
         <v>576</v>
       </c>
-      <c r="F49" s="44" t="s">
+      <c r="F49" s="41" t="s">
         <v>40</v>
       </c>
-      <c r="G49" s="43" t="s">
+      <c r="G49" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="H49" s="43">
+      <c r="H49" s="40">
         <v>134</v>
       </c>
-      <c r="I49" s="42">
+      <c r="I49" s="39">
         <v>0.5</v>
       </c>
       <c r="J49" s="2"/>
-      <c r="K49" s="41" t="s">
-        <v>0</v>
-      </c>
-      <c r="L49" s="39" t="s">
-        <v>0</v>
-      </c>
-      <c r="M49" s="39" t="s">
-        <v>0</v>
-      </c>
-      <c r="N49" s="39" t="s">
-        <v>0</v>
-      </c>
-      <c r="O49" s="39" t="s">
-        <v>0</v>
-      </c>
-      <c r="P49" s="40" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q49" s="39" t="s">
-        <v>0</v>
-      </c>
-      <c r="R49" s="38">
-        <v>0</v>
-      </c>
-      <c r="S49" s="15" t="s">
+      <c r="K49" s="38" t="s">
+        <v>0</v>
+      </c>
+      <c r="L49" s="36" t="s">
+        <v>0</v>
+      </c>
+      <c r="M49" s="36" t="s">
+        <v>0</v>
+      </c>
+      <c r="N49" s="36" t="s">
+        <v>0</v>
+      </c>
+      <c r="O49" s="36" t="s">
+        <v>0</v>
+      </c>
+      <c r="P49" s="37" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q49" s="36" t="s">
+        <v>0</v>
+      </c>
+      <c r="R49" s="35">
+        <v>0</v>
+      </c>
+      <c r="S49" s="110" t="s">
         <v>4</v>
       </c>
-      <c r="U49" s="28" t="s">
-        <v>0</v>
-      </c>
-      <c r="V49" s="27">
-        <v>0</v>
-      </c>
-      <c r="W49" s="26" t="s">
-        <v>0</v>
-      </c>
-      <c r="X49" s="25" t="s">
+      <c r="U49" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="V49" s="25">
+        <v>0</v>
+      </c>
+      <c r="W49" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="X49" s="23" t="s">
         <v>0</v>
       </c>
       <c r="Y49" s="10"/>
     </row>
-    <row r="50" spans="1:34" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B50" s="37"/>
-      <c r="C50" s="36">
+    <row r="50" spans="1:34" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B50" s="108"/>
+      <c r="C50" s="34">
         <v>3</v>
       </c>
-      <c r="D50" s="36">
-        <v>0</v>
-      </c>
-      <c r="E50" s="36">
+      <c r="D50" s="34">
+        <v>0</v>
+      </c>
+      <c r="E50" s="34">
         <v>534</v>
       </c>
-      <c r="F50" s="35" t="s">
+      <c r="F50" s="33" t="s">
         <v>39</v>
       </c>
-      <c r="G50" s="34" t="s">
+      <c r="G50" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="H50" s="34">
+      <c r="H50" s="32">
         <v>8</v>
       </c>
-      <c r="I50" s="33">
+      <c r="I50" s="31">
         <v>7.5</v>
       </c>
       <c r="J50" s="2"/>
-      <c r="K50" s="32" t="s">
-        <v>0</v>
-      </c>
-      <c r="L50" s="30" t="s">
-        <v>0</v>
-      </c>
-      <c r="M50" s="30" t="s">
-        <v>0</v>
-      </c>
-      <c r="N50" s="30" t="s">
-        <v>0</v>
-      </c>
-      <c r="O50" s="30" t="s">
-        <v>0</v>
-      </c>
-      <c r="P50" s="31" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q50" s="30" t="s">
-        <v>0</v>
-      </c>
-      <c r="R50" s="29">
-        <v>0</v>
-      </c>
-      <c r="S50" s="15"/>
+      <c r="K50" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="L50" s="28" t="s">
+        <v>0</v>
+      </c>
+      <c r="M50" s="28" t="s">
+        <v>0</v>
+      </c>
+      <c r="N50" s="28" t="s">
+        <v>0</v>
+      </c>
+      <c r="O50" s="28" t="s">
+        <v>0</v>
+      </c>
+      <c r="P50" s="29" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q50" s="28" t="s">
+        <v>0</v>
+      </c>
+      <c r="R50" s="27">
+        <v>0</v>
+      </c>
+      <c r="S50" s="110"/>
       <c r="U50" s="14" t="s">
         <v>0</v>
       </c>
@@ -14313,118 +14307,118 @@
       </c>
       <c r="Y50" s="10"/>
     </row>
-    <row r="51" spans="1:34" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B51" s="24"/>
-      <c r="C51" s="23">
+    <row r="51" spans="1:34" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B51" s="109"/>
+      <c r="C51" s="22">
         <v>3</v>
       </c>
-      <c r="D51" s="23">
-        <v>0</v>
-      </c>
-      <c r="E51" s="23" t="s">
-        <v>0</v>
-      </c>
-      <c r="F51" s="22"/>
-      <c r="G51" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="H51" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="I51" s="20" t="s">
+      <c r="D51" s="22">
+        <v>0</v>
+      </c>
+      <c r="E51" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="F51" s="21"/>
+      <c r="G51" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="H51" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="I51" s="19" t="s">
         <v>0</v>
       </c>
       <c r="J51" s="2"/>
-      <c r="K51" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="L51" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="M51" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="N51" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="O51" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="P51" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q51" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="R51" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="S51" s="15"/>
-      <c r="U51" s="28" t="s">
-        <v>0</v>
-      </c>
-      <c r="V51" s="27" t="s">
-        <v>0</v>
-      </c>
-      <c r="W51" s="26" t="s">
-        <v>0</v>
-      </c>
-      <c r="X51" s="25" t="s">
+      <c r="K51" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="L51" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="M51" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="N51" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="O51" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="P51" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q51" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="R51" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="S51" s="110"/>
+      <c r="U51" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="V51" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="W51" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="X51" s="23" t="s">
         <v>0</v>
       </c>
       <c r="Y51" s="10"/>
     </row>
-    <row r="52" spans="1:34" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B52" s="46">
+    <row r="52" spans="1:34" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B52" s="107">
         <v>4</v>
       </c>
-      <c r="C52" s="45">
+      <c r="C52" s="42">
         <v>4</v>
       </c>
-      <c r="D52" s="45">
+      <c r="D52" s="42">
         <v>7</v>
       </c>
-      <c r="E52" s="45">
+      <c r="E52" s="42">
         <v>690</v>
       </c>
-      <c r="F52" s="44" t="s">
+      <c r="F52" s="41" t="s">
         <v>38</v>
       </c>
-      <c r="G52" s="43" t="s">
+      <c r="G52" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="H52" s="43">
+      <c r="H52" s="40">
         <v>322</v>
       </c>
-      <c r="I52" s="42">
+      <c r="I52" s="39">
         <v>0</v>
       </c>
       <c r="J52" s="2"/>
-      <c r="K52" s="41">
+      <c r="K52" s="38">
         <v>68</v>
       </c>
-      <c r="L52" s="39" t="s">
-        <v>0</v>
-      </c>
-      <c r="M52" s="39" t="s">
-        <v>0</v>
-      </c>
-      <c r="N52" s="39" t="s">
-        <v>0</v>
-      </c>
-      <c r="O52" s="39" t="s">
-        <v>0</v>
-      </c>
-      <c r="P52" s="40">
+      <c r="L52" s="36" t="s">
+        <v>0</v>
+      </c>
+      <c r="M52" s="36" t="s">
+        <v>0</v>
+      </c>
+      <c r="N52" s="36" t="s">
+        <v>0</v>
+      </c>
+      <c r="O52" s="36" t="s">
+        <v>0</v>
+      </c>
+      <c r="P52" s="37">
         <v>2.5</v>
       </c>
-      <c r="Q52" s="39" t="s">
-        <v>0</v>
-      </c>
-      <c r="R52" s="38">
+      <c r="Q52" s="36" t="s">
+        <v>0</v>
+      </c>
+      <c r="R52" s="35">
         <v>70.5</v>
       </c>
-      <c r="S52" s="15" t="s">
+      <c r="S52" s="110" t="s">
         <v>4</v>
       </c>
       <c r="U52" s="14" t="s">
@@ -14441,116 +14435,116 @@
       </c>
       <c r="Y52" s="10"/>
     </row>
-    <row r="53" spans="1:34" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B53" s="37"/>
-      <c r="C53" s="36">
+    <row r="53" spans="1:34" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B53" s="108"/>
+      <c r="C53" s="34">
         <v>4</v>
       </c>
-      <c r="D53" s="36">
+      <c r="D53" s="34">
         <v>7</v>
       </c>
-      <c r="E53" s="36">
+      <c r="E53" s="34">
         <v>554</v>
       </c>
-      <c r="F53" s="35" t="s">
+      <c r="F53" s="33" t="s">
         <v>37</v>
       </c>
-      <c r="G53" s="34" t="s">
+      <c r="G53" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="H53" s="34">
+      <c r="H53" s="32">
         <v>330</v>
       </c>
-      <c r="I53" s="33">
+      <c r="I53" s="31">
         <v>0</v>
       </c>
       <c r="J53" s="2"/>
-      <c r="K53" s="32">
+      <c r="K53" s="30">
         <v>68</v>
       </c>
-      <c r="L53" s="30" t="s">
-        <v>0</v>
-      </c>
-      <c r="M53" s="30" t="s">
-        <v>0</v>
-      </c>
-      <c r="N53" s="30" t="s">
-        <v>0</v>
-      </c>
-      <c r="O53" s="30" t="s">
-        <v>0</v>
-      </c>
-      <c r="P53" s="31">
+      <c r="L53" s="28" t="s">
+        <v>0</v>
+      </c>
+      <c r="M53" s="28" t="s">
+        <v>0</v>
+      </c>
+      <c r="N53" s="28" t="s">
+        <v>0</v>
+      </c>
+      <c r="O53" s="28" t="s">
+        <v>0</v>
+      </c>
+      <c r="P53" s="29">
         <v>2.5</v>
       </c>
-      <c r="Q53" s="30" t="s">
-        <v>0</v>
-      </c>
-      <c r="R53" s="29">
+      <c r="Q53" s="28" t="s">
+        <v>0</v>
+      </c>
+      <c r="R53" s="27">
         <v>70.5</v>
       </c>
-      <c r="S53" s="15"/>
-      <c r="U53" s="28" t="s">
+      <c r="S53" s="110"/>
+      <c r="U53" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="V53" s="27">
+      <c r="V53" s="25">
         <v>2.5</v>
       </c>
-      <c r="W53" s="26" t="s">
-        <v>0</v>
-      </c>
-      <c r="X53" s="25">
+      <c r="W53" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="X53" s="23">
         <v>7</v>
       </c>
       <c r="Y53" s="10"/>
     </row>
-    <row r="54" spans="1:34" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B54" s="24"/>
-      <c r="C54" s="23">
+    <row r="54" spans="1:34" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B54" s="109"/>
+      <c r="C54" s="22">
         <v>4</v>
       </c>
-      <c r="D54" s="23">
+      <c r="D54" s="22">
         <v>7</v>
       </c>
-      <c r="E54" s="23" t="s">
-        <v>0</v>
-      </c>
-      <c r="F54" s="22"/>
-      <c r="G54" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="H54" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="I54" s="20" t="s">
+      <c r="E54" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="F54" s="21"/>
+      <c r="G54" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="H54" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="I54" s="19" t="s">
         <v>0</v>
       </c>
       <c r="J54" s="2"/>
-      <c r="K54" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="L54" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="M54" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="N54" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="O54" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="P54" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q54" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="R54" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="S54" s="15"/>
+      <c r="K54" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="L54" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="M54" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="N54" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="O54" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="P54" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q54" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="R54" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="S54" s="110"/>
       <c r="U54" s="14" t="s">
         <v>0</v>
       </c>
@@ -14565,122 +14559,122 @@
       </c>
       <c r="Y54" s="10"/>
     </row>
-    <row r="55" spans="1:34" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B55" s="46">
+    <row r="55" spans="1:34" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B55" s="107">
         <v>5</v>
       </c>
-      <c r="C55" s="45">
+      <c r="C55" s="42">
         <v>5</v>
       </c>
-      <c r="D55" s="45">
+      <c r="D55" s="42">
         <v>9</v>
       </c>
-      <c r="E55" s="45">
+      <c r="E55" s="42">
         <v>1101</v>
       </c>
-      <c r="F55" s="44" t="s">
+      <c r="F55" s="41" t="s">
         <v>36</v>
       </c>
-      <c r="G55" s="43" t="s">
+      <c r="G55" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="H55" s="43">
+      <c r="H55" s="40">
         <v>303</v>
       </c>
-      <c r="I55" s="42">
+      <c r="I55" s="39">
         <v>0</v>
       </c>
       <c r="J55" s="2"/>
-      <c r="K55" s="41">
+      <c r="K55" s="38">
         <v>52</v>
       </c>
-      <c r="L55" s="39" t="s">
-        <v>0</v>
-      </c>
-      <c r="M55" s="39" t="s">
-        <v>0</v>
-      </c>
-      <c r="N55" s="39" t="s">
-        <v>0</v>
-      </c>
-      <c r="O55" s="39" t="s">
-        <v>0</v>
-      </c>
-      <c r="P55" s="40">
-        <v>0</v>
-      </c>
-      <c r="Q55" s="39" t="s">
-        <v>0</v>
-      </c>
-      <c r="R55" s="38">
+      <c r="L55" s="36" t="s">
+        <v>0</v>
+      </c>
+      <c r="M55" s="36" t="s">
+        <v>0</v>
+      </c>
+      <c r="N55" s="36" t="s">
+        <v>0</v>
+      </c>
+      <c r="O55" s="36" t="s">
+        <v>0</v>
+      </c>
+      <c r="P55" s="37">
+        <v>0</v>
+      </c>
+      <c r="Q55" s="36" t="s">
+        <v>0</v>
+      </c>
+      <c r="R55" s="35">
         <v>52</v>
       </c>
-      <c r="S55" s="15" t="s">
+      <c r="S55" s="110" t="s">
         <v>4</v>
       </c>
-      <c r="U55" s="28" t="s">
+      <c r="U55" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="V55" s="27">
-        <v>0</v>
-      </c>
-      <c r="W55" s="26">
+      <c r="V55" s="25">
+        <v>0</v>
+      </c>
+      <c r="W55" s="24">
         <v>52</v>
       </c>
-      <c r="X55" s="25">
+      <c r="X55" s="23">
         <v>9</v>
       </c>
       <c r="Y55" s="10"/>
     </row>
-    <row r="56" spans="1:34" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B56" s="37"/>
-      <c r="C56" s="36">
+    <row r="56" spans="1:34" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B56" s="108"/>
+      <c r="C56" s="34">
         <v>5</v>
       </c>
-      <c r="D56" s="36">
+      <c r="D56" s="34">
         <v>9</v>
       </c>
-      <c r="E56" s="36">
+      <c r="E56" s="34">
         <v>914</v>
       </c>
-      <c r="F56" s="35" t="s">
+      <c r="F56" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="G56" s="34" t="s">
+      <c r="G56" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="H56" s="34">
+      <c r="H56" s="32">
         <v>25</v>
       </c>
-      <c r="I56" s="33">
+      <c r="I56" s="31">
         <v>2.5</v>
       </c>
       <c r="J56" s="2"/>
-      <c r="K56" s="32">
+      <c r="K56" s="30">
         <v>52</v>
       </c>
-      <c r="L56" s="30" t="s">
-        <v>0</v>
-      </c>
-      <c r="M56" s="30" t="s">
-        <v>0</v>
-      </c>
-      <c r="N56" s="30" t="s">
-        <v>0</v>
-      </c>
-      <c r="O56" s="30" t="s">
-        <v>0</v>
-      </c>
-      <c r="P56" s="31">
-        <v>0</v>
-      </c>
-      <c r="Q56" s="30" t="s">
-        <v>0</v>
-      </c>
-      <c r="R56" s="29">
+      <c r="L56" s="28" t="s">
+        <v>0</v>
+      </c>
+      <c r="M56" s="28" t="s">
+        <v>0</v>
+      </c>
+      <c r="N56" s="28" t="s">
+        <v>0</v>
+      </c>
+      <c r="O56" s="28" t="s">
+        <v>0</v>
+      </c>
+      <c r="P56" s="29">
+        <v>0</v>
+      </c>
+      <c r="Q56" s="28" t="s">
+        <v>0</v>
+      </c>
+      <c r="R56" s="27">
         <v>52</v>
       </c>
-      <c r="S56" s="15"/>
+      <c r="S56" s="110"/>
       <c r="U56" s="14" t="s">
         <v>35</v>
       </c>
@@ -14695,64 +14689,64 @@
       </c>
       <c r="Y56" s="10"/>
     </row>
-    <row r="57" spans="1:34" s="2" customFormat="1" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:34" s="2" customFormat="1" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A57" s="1"/>
-      <c r="B57" s="24"/>
-      <c r="C57" s="23">
+      <c r="B57" s="109"/>
+      <c r="C57" s="22">
         <v>5</v>
       </c>
-      <c r="D57" s="23">
+      <c r="D57" s="22">
         <v>9</v>
       </c>
-      <c r="E57" s="23" t="s">
-        <v>0</v>
-      </c>
-      <c r="F57" s="22"/>
-      <c r="G57" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="H57" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="I57" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="K57" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="L57" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="M57" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="N57" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="O57" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="P57" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q57" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="R57" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="S57" s="15"/>
+      <c r="E57" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="F57" s="21"/>
+      <c r="G57" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="H57" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="I57" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="K57" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="L57" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="M57" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="N57" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="O57" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="P57" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q57" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="R57" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="S57" s="110"/>
       <c r="T57" s="1"/>
-      <c r="U57" s="28" t="s">
-        <v>0</v>
-      </c>
-      <c r="V57" s="27" t="s">
-        <v>0</v>
-      </c>
-      <c r="W57" s="26" t="s">
-        <v>0</v>
-      </c>
-      <c r="X57" s="25">
+      <c r="U57" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="V57" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="W57" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="X57" s="23">
         <v>9</v>
       </c>
       <c r="Y57" s="10"/>
@@ -14765,57 +14759,57 @@
       <c r="AG57" s="1"/>
       <c r="AH57" s="1"/>
     </row>
-    <row r="58" spans="1:34" s="2" customFormat="1" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:34" s="2" customFormat="1" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A58" s="1"/>
-      <c r="B58" s="46">
+      <c r="B58" s="107">
         <v>6</v>
       </c>
-      <c r="C58" s="45">
+      <c r="C58" s="42">
         <v>6</v>
       </c>
-      <c r="D58" s="45">
+      <c r="D58" s="42">
         <v>11</v>
       </c>
-      <c r="E58" s="45">
+      <c r="E58" s="42">
         <v>621</v>
       </c>
-      <c r="F58" s="44" t="s">
+      <c r="F58" s="41" t="s">
         <v>34</v>
       </c>
-      <c r="G58" s="43" t="s">
+      <c r="G58" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="H58" s="43">
+      <c r="H58" s="40">
         <v>283</v>
       </c>
-      <c r="I58" s="42">
-        <v>0</v>
-      </c>
-      <c r="K58" s="41">
+      <c r="I58" s="39">
+        <v>0</v>
+      </c>
+      <c r="K58" s="38">
         <v>38.400000000000006</v>
       </c>
-      <c r="L58" s="39" t="s">
-        <v>0</v>
-      </c>
-      <c r="M58" s="39" t="s">
-        <v>0</v>
-      </c>
-      <c r="N58" s="39" t="s">
-        <v>0</v>
-      </c>
-      <c r="O58" s="39" t="s">
-        <v>0</v>
-      </c>
-      <c r="P58" s="40">
-        <v>0</v>
-      </c>
-      <c r="Q58" s="39" t="s">
-        <v>0</v>
-      </c>
-      <c r="R58" s="38">
+      <c r="L58" s="36" t="s">
+        <v>0</v>
+      </c>
+      <c r="M58" s="36" t="s">
+        <v>0</v>
+      </c>
+      <c r="N58" s="36" t="s">
+        <v>0</v>
+      </c>
+      <c r="O58" s="36" t="s">
+        <v>0</v>
+      </c>
+      <c r="P58" s="37">
+        <v>0</v>
+      </c>
+      <c r="Q58" s="36" t="s">
+        <v>0</v>
+      </c>
+      <c r="R58" s="35">
         <v>38.400000000000006</v>
       </c>
-      <c r="S58" s="15" t="s">
+      <c r="S58" s="110" t="s">
         <v>4</v>
       </c>
       <c r="T58" s="1"/>
@@ -14841,66 +14835,66 @@
       <c r="AG58" s="1"/>
       <c r="AH58" s="1"/>
     </row>
-    <row r="59" spans="1:34" s="2" customFormat="1" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:34" s="2" customFormat="1" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A59" s="1"/>
-      <c r="B59" s="37"/>
-      <c r="C59" s="36">
+      <c r="B59" s="108"/>
+      <c r="C59" s="34">
         <v>6</v>
       </c>
-      <c r="D59" s="36">
+      <c r="D59" s="34">
         <v>11</v>
       </c>
-      <c r="E59" s="36">
+      <c r="E59" s="34">
         <v>622</v>
       </c>
-      <c r="F59" s="35" t="s">
+      <c r="F59" s="33" t="s">
         <v>33</v>
       </c>
-      <c r="G59" s="34" t="s">
+      <c r="G59" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="H59" s="34">
+      <c r="H59" s="32">
         <v>282</v>
       </c>
-      <c r="I59" s="33">
-        <v>0</v>
-      </c>
-      <c r="K59" s="32">
+      <c r="I59" s="31">
+        <v>0</v>
+      </c>
+      <c r="K59" s="30">
         <v>38.400000000000006</v>
       </c>
-      <c r="L59" s="30" t="s">
-        <v>0</v>
-      </c>
-      <c r="M59" s="30" t="s">
-        <v>0</v>
-      </c>
-      <c r="N59" s="30" t="s">
-        <v>0</v>
-      </c>
-      <c r="O59" s="30" t="s">
-        <v>0</v>
-      </c>
-      <c r="P59" s="31">
-        <v>0</v>
-      </c>
-      <c r="Q59" s="30" t="s">
-        <v>0</v>
-      </c>
-      <c r="R59" s="29">
+      <c r="L59" s="28" t="s">
+        <v>0</v>
+      </c>
+      <c r="M59" s="28" t="s">
+        <v>0</v>
+      </c>
+      <c r="N59" s="28" t="s">
+        <v>0</v>
+      </c>
+      <c r="O59" s="28" t="s">
+        <v>0</v>
+      </c>
+      <c r="P59" s="29">
+        <v>0</v>
+      </c>
+      <c r="Q59" s="28" t="s">
+        <v>0</v>
+      </c>
+      <c r="R59" s="27">
         <v>38.400000000000006</v>
       </c>
-      <c r="S59" s="15"/>
+      <c r="S59" s="110"/>
       <c r="T59" s="1"/>
-      <c r="U59" s="28" t="s">
+      <c r="U59" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="V59" s="27">
-        <v>0</v>
-      </c>
-      <c r="W59" s="26" t="s">
-        <v>0</v>
-      </c>
-      <c r="X59" s="25">
+      <c r="V59" s="25">
+        <v>0</v>
+      </c>
+      <c r="W59" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="X59" s="23">
         <v>11</v>
       </c>
       <c r="Y59" s="10"/>
@@ -14913,53 +14907,53 @@
       <c r="AG59" s="1"/>
       <c r="AH59" s="1"/>
     </row>
-    <row r="60" spans="1:34" s="2" customFormat="1" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:34" s="2" customFormat="1" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A60" s="1"/>
-      <c r="B60" s="24"/>
-      <c r="C60" s="23">
+      <c r="B60" s="109"/>
+      <c r="C60" s="22">
         <v>6</v>
       </c>
-      <c r="D60" s="23">
+      <c r="D60" s="22">
         <v>11</v>
       </c>
-      <c r="E60" s="23" t="s">
-        <v>0</v>
-      </c>
-      <c r="F60" s="22"/>
-      <c r="G60" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="H60" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="I60" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="K60" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="L60" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="M60" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="N60" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="O60" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="P60" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q60" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="R60" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="S60" s="15"/>
+      <c r="E60" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="F60" s="21"/>
+      <c r="G60" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="H60" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="I60" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="K60" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="L60" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="M60" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="N60" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="O60" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="P60" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q60" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="R60" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="S60" s="110"/>
       <c r="T60" s="1"/>
       <c r="U60" s="14" t="s">
         <v>0</v>
@@ -14983,11 +14977,11 @@
       <c r="AG60" s="1"/>
       <c r="AH60" s="1"/>
     </row>
-    <row r="61" spans="1:34" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B61" s="97"/>
-      <c r="C61" s="97"/>
-      <c r="D61" s="97"/>
-      <c r="E61" s="97"/>
+    <row r="61" spans="1:34" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B61" s="84"/>
+      <c r="C61" s="84"/>
+      <c r="D61" s="84"/>
+      <c r="E61" s="84"/>
       <c r="F61" s="9" t="s">
         <v>0</v>
       </c>
@@ -15001,199 +14995,199 @@
       <c r="P61" s="9"/>
       <c r="Q61" s="9"/>
       <c r="R61" s="9"/>
-      <c r="S61" s="96"/>
+      <c r="S61" s="83"/>
       <c r="W61" s="1"/>
     </row>
-    <row r="62" spans="1:34" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B62" s="95" t="s">
+    <row r="62" spans="1:34" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B62" s="82" t="s">
         <v>32</v>
       </c>
-      <c r="C62" s="94"/>
-      <c r="D62" s="94"/>
-      <c r="E62" s="91"/>
-      <c r="F62" s="92"/>
-      <c r="G62" s="93" t="s">
+      <c r="C62" s="81"/>
+      <c r="D62" s="81"/>
+      <c r="E62" s="78"/>
+      <c r="F62" s="79"/>
+      <c r="G62" s="80" t="s">
         <v>31</v>
       </c>
-      <c r="H62" s="92"/>
-      <c r="I62" s="91" t="s">
+      <c r="H62" s="79"/>
+      <c r="I62" s="78" t="s">
         <v>30</v>
       </c>
-      <c r="J62" s="90"/>
-      <c r="K62" s="89"/>
-      <c r="L62" s="89"/>
-      <c r="M62" s="89"/>
-      <c r="N62" s="89"/>
-      <c r="O62" s="89"/>
-      <c r="P62" s="89"/>
-      <c r="Q62" s="89"/>
-      <c r="R62" s="88"/>
-      <c r="S62" s="88"/>
-      <c r="T62" s="87"/>
-      <c r="U62" s="86"/>
-      <c r="V62" s="85"/>
-      <c r="W62" s="84"/>
-      <c r="X62" s="83"/>
-      <c r="Y62" s="82">
+      <c r="J62" s="77"/>
+      <c r="K62" s="76"/>
+      <c r="L62" s="76"/>
+      <c r="M62" s="76"/>
+      <c r="N62" s="76"/>
+      <c r="O62" s="76"/>
+      <c r="P62" s="76"/>
+      <c r="Q62" s="76"/>
+      <c r="R62" s="75"/>
+      <c r="S62" s="75"/>
+      <c r="T62" s="74"/>
+      <c r="U62" s="117"/>
+      <c r="V62" s="118"/>
+      <c r="W62" s="119"/>
+      <c r="X62" s="73"/>
+      <c r="Y62" s="72">
         <v>3</v>
       </c>
     </row>
-    <row r="63" spans="1:34" ht="57" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B63" s="81" t="s">
+    <row r="63" spans="1:34" ht="57" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B63" s="71" t="s">
         <v>16</v>
       </c>
-      <c r="C63" s="80"/>
-      <c r="D63" s="80"/>
-      <c r="E63" s="80" t="s">
+      <c r="C63" s="70"/>
+      <c r="D63" s="70"/>
+      <c r="E63" s="70" t="s">
         <v>29</v>
       </c>
-      <c r="F63" s="79" t="s">
+      <c r="F63" s="69" t="s">
         <v>28</v>
       </c>
-      <c r="G63" s="78" t="s">
+      <c r="G63" s="68" t="s">
         <v>27</v>
       </c>
-      <c r="H63" s="78" t="s">
+      <c r="H63" s="68" t="s">
         <v>26</v>
       </c>
-      <c r="I63" s="77" t="s">
+      <c r="I63" s="67" t="s">
         <v>25</v>
       </c>
-      <c r="J63" s="63"/>
-      <c r="K63" s="76" t="s">
+      <c r="J63" s="56"/>
+      <c r="K63" s="66" t="s">
         <v>24</v>
       </c>
-      <c r="L63" s="75" t="s">
-        <v>0</v>
-      </c>
-      <c r="M63" s="75" t="s">
-        <v>0</v>
-      </c>
-      <c r="N63" s="75" t="s">
-        <v>0</v>
-      </c>
-      <c r="O63" s="75" t="s">
-        <v>0</v>
-      </c>
-      <c r="P63" s="75" t="s">
+      <c r="L63" s="65" t="s">
+        <v>0</v>
+      </c>
+      <c r="M63" s="65" t="s">
+        <v>0</v>
+      </c>
+      <c r="N63" s="65" t="s">
+        <v>0</v>
+      </c>
+      <c r="O63" s="65" t="s">
+        <v>0</v>
+      </c>
+      <c r="P63" s="65" t="s">
         <v>23</v>
       </c>
-      <c r="Q63" s="75" t="s">
-        <v>0</v>
-      </c>
-      <c r="R63" s="74" t="s">
+      <c r="Q63" s="65" t="s">
+        <v>0</v>
+      </c>
+      <c r="R63" s="64" t="s">
         <v>22</v>
       </c>
-      <c r="S63" s="73" t="s">
+      <c r="S63" s="63" t="s">
         <v>21</v>
       </c>
-      <c r="U63" s="72" t="s">
+      <c r="U63" s="111" t="s">
         <v>20</v>
       </c>
-      <c r="V63" s="71"/>
-      <c r="W63" s="70"/>
-      <c r="X63" s="69"/>
+      <c r="V63" s="112"/>
+      <c r="W63" s="113"/>
+      <c r="X63" s="62"/>
       <c r="Y63" s="10"/>
     </row>
-    <row r="64" spans="1:34" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B64" s="68"/>
-      <c r="C64" s="67"/>
-      <c r="D64" s="67"/>
-      <c r="E64" s="67"/>
-      <c r="F64" s="66" t="s">
-        <v>0</v>
-      </c>
-      <c r="G64" s="65"/>
-      <c r="H64" s="65"/>
-      <c r="I64" s="64"/>
-      <c r="J64" s="63"/>
-      <c r="K64" s="62"/>
-      <c r="L64" s="60"/>
-      <c r="M64" s="60"/>
-      <c r="N64" s="60"/>
-      <c r="O64" s="60"/>
-      <c r="P64" s="61"/>
-      <c r="Q64" s="60"/>
-      <c r="R64" s="59"/>
-      <c r="S64" s="58"/>
-      <c r="U64" s="57" t="s">
+    <row r="64" spans="1:34" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B64" s="61"/>
+      <c r="C64" s="60"/>
+      <c r="D64" s="60"/>
+      <c r="E64" s="60"/>
+      <c r="F64" s="59" t="s">
+        <v>0</v>
+      </c>
+      <c r="G64" s="58"/>
+      <c r="H64" s="58"/>
+      <c r="I64" s="57"/>
+      <c r="J64" s="56"/>
+      <c r="K64" s="55"/>
+      <c r="L64" s="53"/>
+      <c r="M64" s="53"/>
+      <c r="N64" s="53"/>
+      <c r="O64" s="53"/>
+      <c r="P64" s="54"/>
+      <c r="Q64" s="53"/>
+      <c r="R64" s="52"/>
+      <c r="S64" s="51"/>
+      <c r="U64" s="50" t="s">
         <v>19</v>
       </c>
-      <c r="V64" s="56" t="s">
+      <c r="V64" s="49" t="s">
         <v>18</v>
       </c>
-      <c r="W64" s="55" t="s">
+      <c r="W64" s="48" t="s">
         <v>17</v>
       </c>
-      <c r="X64" s="54" t="s">
+      <c r="X64" s="47" t="s">
         <v>16</v>
       </c>
       <c r="Y64" s="10"/>
     </row>
-    <row r="65" spans="1:34" s="2" customFormat="1" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:34" s="2" customFormat="1" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A65" s="1"/>
-      <c r="B65" s="52">
+      <c r="B65" s="114">
         <v>1</v>
       </c>
-      <c r="C65" s="45">
+      <c r="C65" s="42">
         <v>1</v>
       </c>
-      <c r="D65" s="43">
-        <v>0</v>
-      </c>
-      <c r="E65" s="45">
+      <c r="D65" s="40">
+        <v>0</v>
+      </c>
+      <c r="E65" s="42">
         <v>321</v>
       </c>
-      <c r="F65" s="44" t="s">
+      <c r="F65" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="G65" s="43" t="s">
+      <c r="G65" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="H65" s="43">
+      <c r="H65" s="40">
         <v>213</v>
       </c>
-      <c r="I65" s="42">
-        <v>0</v>
-      </c>
-      <c r="K65" s="41" t="s">
-        <v>0</v>
-      </c>
-      <c r="L65" s="39" t="s">
-        <v>0</v>
-      </c>
-      <c r="M65" s="39" t="s">
-        <v>0</v>
-      </c>
-      <c r="N65" s="39" t="s">
-        <v>0</v>
-      </c>
-      <c r="O65" s="39" t="s">
-        <v>0</v>
-      </c>
-      <c r="P65" s="40" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q65" s="39" t="s">
-        <v>0</v>
-      </c>
-      <c r="R65" s="38">
-        <v>0</v>
-      </c>
-      <c r="S65" s="15" t="s">
+      <c r="I65" s="39">
+        <v>0</v>
+      </c>
+      <c r="K65" s="38" t="s">
+        <v>0</v>
+      </c>
+      <c r="L65" s="36" t="s">
+        <v>0</v>
+      </c>
+      <c r="M65" s="36" t="s">
+        <v>0</v>
+      </c>
+      <c r="N65" s="36" t="s">
+        <v>0</v>
+      </c>
+      <c r="O65" s="36" t="s">
+        <v>0</v>
+      </c>
+      <c r="P65" s="37" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q65" s="36" t="s">
+        <v>0</v>
+      </c>
+      <c r="R65" s="35">
+        <v>0</v>
+      </c>
+      <c r="S65" s="110" t="s">
         <v>4</v>
       </c>
       <c r="T65" s="1"/>
-      <c r="U65" s="53" t="s">
-        <v>0</v>
-      </c>
-      <c r="V65" s="27">
-        <v>0</v>
-      </c>
-      <c r="W65" s="26" t="s">
-        <v>0</v>
-      </c>
-      <c r="X65" s="25" t="s">
+      <c r="U65" s="46" t="s">
+        <v>0</v>
+      </c>
+      <c r="V65" s="25">
+        <v>0</v>
+      </c>
+      <c r="W65" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="X65" s="23" t="s">
         <v>0</v>
       </c>
       <c r="Y65" s="10"/>
@@ -15206,55 +15200,55 @@
       <c r="AG65" s="1"/>
       <c r="AH65" s="1"/>
     </row>
-    <row r="66" spans="1:34" s="2" customFormat="1" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:34" s="2" customFormat="1" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A66" s="1"/>
-      <c r="B66" s="51"/>
-      <c r="C66" s="36">
+      <c r="B66" s="115"/>
+      <c r="C66" s="34">
         <v>1</v>
       </c>
-      <c r="D66" s="34">
-        <v>0</v>
-      </c>
-      <c r="E66" s="36">
+      <c r="D66" s="32">
+        <v>0</v>
+      </c>
+      <c r="E66" s="34">
         <v>220</v>
       </c>
-      <c r="F66" s="35" t="s">
+      <c r="F66" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="G66" s="34" t="s">
+      <c r="G66" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="H66" s="34">
+      <c r="H66" s="32">
         <v>5</v>
       </c>
-      <c r="I66" s="33">
+      <c r="I66" s="31">
         <v>10</v>
       </c>
-      <c r="K66" s="32" t="s">
-        <v>0</v>
-      </c>
-      <c r="L66" s="30" t="s">
-        <v>0</v>
-      </c>
-      <c r="M66" s="30" t="s">
-        <v>0</v>
-      </c>
-      <c r="N66" s="30" t="s">
-        <v>0</v>
-      </c>
-      <c r="O66" s="30" t="s">
-        <v>0</v>
-      </c>
-      <c r="P66" s="31" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q66" s="30" t="s">
-        <v>0</v>
-      </c>
-      <c r="R66" s="29">
-        <v>0</v>
-      </c>
-      <c r="S66" s="15"/>
+      <c r="K66" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="L66" s="28" t="s">
+        <v>0</v>
+      </c>
+      <c r="M66" s="28" t="s">
+        <v>0</v>
+      </c>
+      <c r="N66" s="28" t="s">
+        <v>0</v>
+      </c>
+      <c r="O66" s="28" t="s">
+        <v>0</v>
+      </c>
+      <c r="P66" s="29" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q66" s="28" t="s">
+        <v>0</v>
+      </c>
+      <c r="R66" s="27">
+        <v>0</v>
+      </c>
+      <c r="S66" s="110"/>
       <c r="T66" s="1"/>
       <c r="U66" s="14" t="s">
         <v>0</v>
@@ -15278,64 +15272,64 @@
       <c r="AG66" s="1"/>
       <c r="AH66" s="1"/>
     </row>
-    <row r="67" spans="1:34" s="2" customFormat="1" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:34" s="2" customFormat="1" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A67" s="1"/>
-      <c r="B67" s="50"/>
-      <c r="C67" s="23">
+      <c r="B67" s="116"/>
+      <c r="C67" s="22">
         <v>1</v>
       </c>
-      <c r="D67" s="21">
-        <v>0</v>
-      </c>
-      <c r="E67" s="23" t="s">
-        <v>0</v>
-      </c>
-      <c r="F67" s="22"/>
-      <c r="G67" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="H67" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="I67" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="K67" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="L67" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="M67" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="N67" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="O67" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="P67" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q67" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="R67" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="S67" s="15"/>
+      <c r="D67" s="20">
+        <v>0</v>
+      </c>
+      <c r="E67" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="F67" s="21"/>
+      <c r="G67" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="H67" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="I67" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="K67" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="L67" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="M67" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="N67" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="O67" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="P67" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q67" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="R67" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="S67" s="110"/>
       <c r="T67" s="1"/>
-      <c r="U67" s="28" t="s">
-        <v>0</v>
-      </c>
-      <c r="V67" s="27" t="s">
-        <v>0</v>
-      </c>
-      <c r="W67" s="26" t="s">
-        <v>0</v>
-      </c>
-      <c r="X67" s="25" t="s">
+      <c r="U67" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="V67" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="W67" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="X67" s="23" t="s">
         <v>0</v>
       </c>
       <c r="Y67" s="10"/>
@@ -15348,57 +15342,57 @@
       <c r="AG67" s="1"/>
       <c r="AH67" s="1"/>
     </row>
-    <row r="68" spans="1:34" s="2" customFormat="1" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:34" s="2" customFormat="1" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A68" s="1"/>
-      <c r="B68" s="52">
+      <c r="B68" s="114">
         <v>2</v>
       </c>
-      <c r="C68" s="45">
+      <c r="C68" s="42">
         <v>2</v>
       </c>
-      <c r="D68" s="45">
-        <v>0</v>
-      </c>
-      <c r="E68" s="45">
+      <c r="D68" s="42">
+        <v>0</v>
+      </c>
+      <c r="E68" s="42">
         <v>344</v>
       </c>
-      <c r="F68" s="44" t="s">
+      <c r="F68" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="G68" s="43" t="s">
+      <c r="G68" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="H68" s="43">
+      <c r="H68" s="40">
         <v>135</v>
       </c>
-      <c r="I68" s="42">
+      <c r="I68" s="39">
         <v>0.5</v>
       </c>
-      <c r="K68" s="41" t="s">
-        <v>0</v>
-      </c>
-      <c r="L68" s="39" t="s">
-        <v>0</v>
-      </c>
-      <c r="M68" s="39" t="s">
-        <v>0</v>
-      </c>
-      <c r="N68" s="39" t="s">
-        <v>0</v>
-      </c>
-      <c r="O68" s="39" t="s">
-        <v>0</v>
-      </c>
-      <c r="P68" s="40" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q68" s="39" t="s">
-        <v>0</v>
-      </c>
-      <c r="R68" s="38">
-        <v>0</v>
-      </c>
-      <c r="S68" s="15" t="s">
+      <c r="K68" s="38" t="s">
+        <v>0</v>
+      </c>
+      <c r="L68" s="36" t="s">
+        <v>0</v>
+      </c>
+      <c r="M68" s="36" t="s">
+        <v>0</v>
+      </c>
+      <c r="N68" s="36" t="s">
+        <v>0</v>
+      </c>
+      <c r="O68" s="36" t="s">
+        <v>0</v>
+      </c>
+      <c r="P68" s="37" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q68" s="36" t="s">
+        <v>0</v>
+      </c>
+      <c r="R68" s="35">
+        <v>0</v>
+      </c>
+      <c r="S68" s="110" t="s">
         <v>4</v>
       </c>
       <c r="T68" s="1"/>
@@ -15424,66 +15418,66 @@
       <c r="AG68" s="1"/>
       <c r="AH68" s="1"/>
     </row>
-    <row r="69" spans="1:34" s="2" customFormat="1" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:34" s="2" customFormat="1" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A69" s="1"/>
-      <c r="B69" s="51"/>
-      <c r="C69" s="36">
+      <c r="B69" s="115"/>
+      <c r="C69" s="34">
         <v>2</v>
       </c>
-      <c r="D69" s="36">
-        <v>0</v>
-      </c>
-      <c r="E69" s="36">
+      <c r="D69" s="34">
+        <v>0</v>
+      </c>
+      <c r="E69" s="34">
         <v>38</v>
       </c>
-      <c r="F69" s="35" t="s">
+      <c r="F69" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="G69" s="34" t="s">
+      <c r="G69" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="H69" s="34">
+      <c r="H69" s="32">
         <v>7</v>
       </c>
-      <c r="I69" s="33">
+      <c r="I69" s="31">
         <v>7.5</v>
       </c>
-      <c r="K69" s="32" t="s">
-        <v>0</v>
-      </c>
-      <c r="L69" s="30" t="s">
-        <v>0</v>
-      </c>
-      <c r="M69" s="30" t="s">
-        <v>0</v>
-      </c>
-      <c r="N69" s="30" t="s">
-        <v>0</v>
-      </c>
-      <c r="O69" s="30" t="s">
-        <v>0</v>
-      </c>
-      <c r="P69" s="31" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q69" s="30" t="s">
-        <v>0</v>
-      </c>
-      <c r="R69" s="29">
-        <v>0</v>
-      </c>
-      <c r="S69" s="15"/>
+      <c r="K69" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="L69" s="28" t="s">
+        <v>0</v>
+      </c>
+      <c r="M69" s="28" t="s">
+        <v>0</v>
+      </c>
+      <c r="N69" s="28" t="s">
+        <v>0</v>
+      </c>
+      <c r="O69" s="28" t="s">
+        <v>0</v>
+      </c>
+      <c r="P69" s="29" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q69" s="28" t="s">
+        <v>0</v>
+      </c>
+      <c r="R69" s="27">
+        <v>0</v>
+      </c>
+      <c r="S69" s="110"/>
       <c r="T69" s="1"/>
-      <c r="U69" s="28" t="s">
-        <v>0</v>
-      </c>
-      <c r="V69" s="27">
-        <v>0</v>
-      </c>
-      <c r="W69" s="26" t="s">
-        <v>0</v>
-      </c>
-      <c r="X69" s="25" t="s">
+      <c r="U69" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="V69" s="25">
+        <v>0</v>
+      </c>
+      <c r="W69" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="X69" s="23" t="s">
         <v>0</v>
       </c>
       <c r="Y69" s="10"/>
@@ -15496,53 +15490,53 @@
       <c r="AG69" s="1"/>
       <c r="AH69" s="1"/>
     </row>
-    <row r="70" spans="1:34" s="2" customFormat="1" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:34" s="2" customFormat="1" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A70" s="1"/>
-      <c r="B70" s="50"/>
-      <c r="C70" s="23">
+      <c r="B70" s="116"/>
+      <c r="C70" s="22">
         <v>2</v>
       </c>
-      <c r="D70" s="23">
-        <v>0</v>
-      </c>
-      <c r="E70" s="23" t="s">
-        <v>0</v>
-      </c>
-      <c r="F70" s="22"/>
-      <c r="G70" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="H70" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="I70" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="K70" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="L70" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="M70" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="N70" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="O70" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="P70" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q70" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="R70" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="S70" s="15"/>
+      <c r="D70" s="22">
+        <v>0</v>
+      </c>
+      <c r="E70" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="F70" s="21"/>
+      <c r="G70" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="H70" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="I70" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="K70" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="L70" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="M70" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="N70" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="O70" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="P70" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q70" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="R70" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="S70" s="110"/>
       <c r="T70" s="1"/>
       <c r="U70" s="14" t="s">
         <v>0</v>
@@ -15566,70 +15560,70 @@
       <c r="AG70" s="1"/>
       <c r="AH70" s="1"/>
     </row>
-    <row r="71" spans="1:34" s="2" customFormat="1" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:34" s="2" customFormat="1" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A71" s="1"/>
-      <c r="B71" s="46">
+      <c r="B71" s="107">
         <v>3</v>
       </c>
-      <c r="C71" s="45">
+      <c r="C71" s="42">
         <v>3</v>
       </c>
-      <c r="D71" s="45">
-        <v>0</v>
-      </c>
-      <c r="E71" s="45">
+      <c r="D71" s="42">
+        <v>0</v>
+      </c>
+      <c r="E71" s="42">
         <v>161</v>
       </c>
-      <c r="F71" s="44" t="s">
+      <c r="F71" s="41" t="s">
         <v>11</v>
       </c>
-      <c r="G71" s="43" t="s">
+      <c r="G71" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="H71" s="43">
+      <c r="H71" s="40">
         <v>77</v>
       </c>
-      <c r="I71" s="42">
+      <c r="I71" s="39">
         <v>1</v>
       </c>
-      <c r="K71" s="41" t="s">
-        <v>0</v>
-      </c>
-      <c r="L71" s="39" t="s">
-        <v>0</v>
-      </c>
-      <c r="M71" s="39" t="s">
-        <v>0</v>
-      </c>
-      <c r="N71" s="39" t="s">
-        <v>0</v>
-      </c>
-      <c r="O71" s="39" t="s">
-        <v>0</v>
-      </c>
-      <c r="P71" s="40" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q71" s="39" t="s">
-        <v>0</v>
-      </c>
-      <c r="R71" s="38">
-        <v>0</v>
-      </c>
-      <c r="S71" s="15" t="s">
+      <c r="K71" s="38" t="s">
+        <v>0</v>
+      </c>
+      <c r="L71" s="36" t="s">
+        <v>0</v>
+      </c>
+      <c r="M71" s="36" t="s">
+        <v>0</v>
+      </c>
+      <c r="N71" s="36" t="s">
+        <v>0</v>
+      </c>
+      <c r="O71" s="36" t="s">
+        <v>0</v>
+      </c>
+      <c r="P71" s="37" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q71" s="36" t="s">
+        <v>0</v>
+      </c>
+      <c r="R71" s="35">
+        <v>0</v>
+      </c>
+      <c r="S71" s="110" t="s">
         <v>4</v>
       </c>
       <c r="T71" s="1"/>
-      <c r="U71" s="28" t="s">
-        <v>0</v>
-      </c>
-      <c r="V71" s="27">
-        <v>0</v>
-      </c>
-      <c r="W71" s="26" t="s">
-        <v>0</v>
-      </c>
-      <c r="X71" s="25" t="s">
+      <c r="U71" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="V71" s="25">
+        <v>0</v>
+      </c>
+      <c r="W71" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="X71" s="23" t="s">
         <v>0</v>
       </c>
       <c r="Y71" s="10"/>
@@ -15642,55 +15636,55 @@
       <c r="AG71" s="1"/>
       <c r="AH71" s="1"/>
     </row>
-    <row r="72" spans="1:34" s="2" customFormat="1" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:34" s="2" customFormat="1" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A72" s="1"/>
-      <c r="B72" s="37"/>
-      <c r="C72" s="36">
+      <c r="B72" s="108"/>
+      <c r="C72" s="34">
         <v>3</v>
       </c>
-      <c r="D72" s="36">
-        <v>0</v>
-      </c>
-      <c r="E72" s="36">
+      <c r="D72" s="34">
+        <v>0</v>
+      </c>
+      <c r="E72" s="34">
         <v>216</v>
       </c>
-      <c r="F72" s="35" t="s">
+      <c r="F72" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="G72" s="34" t="s">
+      <c r="G72" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="H72" s="34">
+      <c r="H72" s="32">
         <v>26</v>
       </c>
-      <c r="I72" s="33">
+      <c r="I72" s="31">
         <v>2.5</v>
       </c>
-      <c r="K72" s="32" t="s">
-        <v>0</v>
-      </c>
-      <c r="L72" s="30" t="s">
-        <v>0</v>
-      </c>
-      <c r="M72" s="30" t="s">
-        <v>0</v>
-      </c>
-      <c r="N72" s="30" t="s">
-        <v>0</v>
-      </c>
-      <c r="O72" s="30" t="s">
-        <v>0</v>
-      </c>
-      <c r="P72" s="31" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q72" s="30" t="s">
-        <v>0</v>
-      </c>
-      <c r="R72" s="29">
-        <v>0</v>
-      </c>
-      <c r="S72" s="15"/>
+      <c r="K72" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="L72" s="28" t="s">
+        <v>0</v>
+      </c>
+      <c r="M72" s="28" t="s">
+        <v>0</v>
+      </c>
+      <c r="N72" s="28" t="s">
+        <v>0</v>
+      </c>
+      <c r="O72" s="28" t="s">
+        <v>0</v>
+      </c>
+      <c r="P72" s="29" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q72" s="28" t="s">
+        <v>0</v>
+      </c>
+      <c r="R72" s="27">
+        <v>0</v>
+      </c>
+      <c r="S72" s="110"/>
       <c r="T72" s="1"/>
       <c r="U72" s="14" t="s">
         <v>0</v>
@@ -15714,64 +15708,64 @@
       <c r="AG72" s="1"/>
       <c r="AH72" s="1"/>
     </row>
-    <row r="73" spans="1:34" s="2" customFormat="1" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:34" s="2" customFormat="1" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A73" s="1"/>
-      <c r="B73" s="24"/>
-      <c r="C73" s="23">
+      <c r="B73" s="109"/>
+      <c r="C73" s="22">
         <v>3</v>
       </c>
-      <c r="D73" s="23">
-        <v>0</v>
-      </c>
-      <c r="E73" s="23" t="s">
-        <v>0</v>
-      </c>
-      <c r="F73" s="22"/>
-      <c r="G73" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="H73" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="I73" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="K73" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="L73" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="M73" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="N73" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="O73" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="P73" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q73" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="R73" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="S73" s="15"/>
+      <c r="D73" s="22">
+        <v>0</v>
+      </c>
+      <c r="E73" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="F73" s="21"/>
+      <c r="G73" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="H73" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="I73" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="K73" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="L73" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="M73" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="N73" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="O73" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="P73" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q73" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="R73" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="S73" s="110"/>
       <c r="T73" s="1"/>
-      <c r="U73" s="28" t="s">
-        <v>0</v>
-      </c>
-      <c r="V73" s="27" t="s">
-        <v>0</v>
-      </c>
-      <c r="W73" s="26" t="s">
-        <v>0</v>
-      </c>
-      <c r="X73" s="25" t="s">
+      <c r="U73" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="V73" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="W73" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="X73" s="23" t="s">
         <v>0</v>
       </c>
       <c r="Y73" s="10"/>
@@ -15784,57 +15778,57 @@
       <c r="AG73" s="1"/>
       <c r="AH73" s="1"/>
     </row>
-    <row r="74" spans="1:34" s="2" customFormat="1" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:34" s="2" customFormat="1" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A74" s="1"/>
-      <c r="B74" s="46">
+      <c r="B74" s="107">
         <v>4</v>
       </c>
-      <c r="C74" s="45">
+      <c r="C74" s="42">
         <v>4</v>
       </c>
-      <c r="D74" s="45">
+      <c r="D74" s="42">
         <v>7</v>
       </c>
-      <c r="E74" s="45">
+      <c r="E74" s="42">
         <v>674</v>
       </c>
-      <c r="F74" s="44" t="s">
+      <c r="F74" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="G74" s="43" t="s">
+      <c r="G74" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="H74" s="43">
+      <c r="H74" s="40">
         <v>57</v>
       </c>
-      <c r="I74" s="42">
+      <c r="I74" s="39">
         <v>1</v>
       </c>
-      <c r="K74" s="41">
+      <c r="K74" s="38">
         <v>68</v>
       </c>
-      <c r="L74" s="39" t="s">
-        <v>0</v>
-      </c>
-      <c r="M74" s="39" t="s">
-        <v>0</v>
-      </c>
-      <c r="N74" s="39" t="s">
-        <v>0</v>
-      </c>
-      <c r="O74" s="39" t="s">
-        <v>0</v>
-      </c>
-      <c r="P74" s="40">
+      <c r="L74" s="36" t="s">
+        <v>0</v>
+      </c>
+      <c r="M74" s="36" t="s">
+        <v>0</v>
+      </c>
+      <c r="N74" s="36" t="s">
+        <v>0</v>
+      </c>
+      <c r="O74" s="36" t="s">
+        <v>0</v>
+      </c>
+      <c r="P74" s="37">
         <v>1.5</v>
       </c>
-      <c r="Q74" s="39" t="s">
-        <v>0</v>
-      </c>
-      <c r="R74" s="38">
+      <c r="Q74" s="36" t="s">
+        <v>0</v>
+      </c>
+      <c r="R74" s="35">
         <v>69.5</v>
       </c>
-      <c r="S74" s="15" t="s">
+      <c r="S74" s="110" t="s">
         <v>4</v>
       </c>
       <c r="T74" s="1"/>
@@ -15860,66 +15854,66 @@
       <c r="AG74" s="1"/>
       <c r="AH74" s="1"/>
     </row>
-    <row r="75" spans="1:34" s="2" customFormat="1" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:34" s="2" customFormat="1" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A75" s="1"/>
-      <c r="B75" s="37"/>
-      <c r="C75" s="36">
+      <c r="B75" s="108"/>
+      <c r="C75" s="34">
         <v>4</v>
       </c>
-      <c r="D75" s="36">
+      <c r="D75" s="34">
         <v>7</v>
       </c>
-      <c r="E75" s="36">
+      <c r="E75" s="34">
         <v>671</v>
       </c>
-      <c r="F75" s="35" t="s">
+      <c r="F75" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="G75" s="34" t="s">
+      <c r="G75" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="H75" s="34">
+      <c r="H75" s="32">
         <v>17</v>
       </c>
-      <c r="I75" s="33">
+      <c r="I75" s="31">
         <v>5</v>
       </c>
-      <c r="K75" s="32">
+      <c r="K75" s="30">
         <v>68</v>
       </c>
-      <c r="L75" s="30" t="s">
-        <v>0</v>
-      </c>
-      <c r="M75" s="30" t="s">
-        <v>0</v>
-      </c>
-      <c r="N75" s="30" t="s">
-        <v>0</v>
-      </c>
-      <c r="O75" s="30" t="s">
-        <v>0</v>
-      </c>
-      <c r="P75" s="31">
+      <c r="L75" s="28" t="s">
+        <v>0</v>
+      </c>
+      <c r="M75" s="28" t="s">
+        <v>0</v>
+      </c>
+      <c r="N75" s="28" t="s">
+        <v>0</v>
+      </c>
+      <c r="O75" s="28" t="s">
+        <v>0</v>
+      </c>
+      <c r="P75" s="29">
         <v>1.5</v>
       </c>
-      <c r="Q75" s="30" t="s">
-        <v>0</v>
-      </c>
-      <c r="R75" s="29">
+      <c r="Q75" s="28" t="s">
+        <v>0</v>
+      </c>
+      <c r="R75" s="27">
         <v>69.5</v>
       </c>
-      <c r="S75" s="15"/>
+      <c r="S75" s="110"/>
       <c r="T75" s="1"/>
-      <c r="U75" s="28" t="s">
+      <c r="U75" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="V75" s="27">
+      <c r="V75" s="25">
         <v>1.5</v>
       </c>
-      <c r="W75" s="26" t="s">
-        <v>0</v>
-      </c>
-      <c r="X75" s="25">
+      <c r="W75" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="X75" s="23">
         <v>7</v>
       </c>
       <c r="Y75" s="10"/>
@@ -15932,53 +15926,53 @@
       <c r="AG75" s="1"/>
       <c r="AH75" s="1"/>
     </row>
-    <row r="76" spans="1:34" s="2" customFormat="1" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:34" s="2" customFormat="1" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A76" s="1"/>
-      <c r="B76" s="24"/>
-      <c r="C76" s="23">
+      <c r="B76" s="109"/>
+      <c r="C76" s="22">
         <v>4</v>
       </c>
-      <c r="D76" s="23">
+      <c r="D76" s="22">
         <v>7</v>
       </c>
-      <c r="E76" s="23" t="s">
-        <v>0</v>
-      </c>
-      <c r="F76" s="22"/>
-      <c r="G76" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="H76" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="I76" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="K76" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="L76" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="M76" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="N76" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="O76" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="P76" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q76" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="R76" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="S76" s="15"/>
+      <c r="E76" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="F76" s="21"/>
+      <c r="G76" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="H76" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="I76" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="K76" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="L76" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="M76" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="N76" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="O76" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="P76" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q76" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="R76" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="S76" s="110"/>
       <c r="T76" s="1"/>
       <c r="U76" s="14" t="s">
         <v>0</v>
@@ -16002,70 +15996,70 @@
       <c r="AG76" s="1"/>
       <c r="AH76" s="1"/>
     </row>
-    <row r="77" spans="1:34" s="2" customFormat="1" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:34" s="2" customFormat="1" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A77" s="1"/>
-      <c r="B77" s="46">
+      <c r="B77" s="107">
         <v>5</v>
       </c>
-      <c r="C77" s="45">
+      <c r="C77" s="42">
         <v>5</v>
       </c>
-      <c r="D77" s="45">
+      <c r="D77" s="42">
         <v>9</v>
       </c>
-      <c r="E77" s="45">
+      <c r="E77" s="42">
         <v>1143</v>
       </c>
-      <c r="F77" s="44" t="s">
+      <c r="F77" s="41" t="s">
         <v>7</v>
       </c>
-      <c r="G77" s="43" t="s">
+      <c r="G77" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="H77" s="43" t="s">
-        <v>0</v>
-      </c>
-      <c r="I77" s="42" t="s">
-        <v>0</v>
-      </c>
-      <c r="K77" s="41">
+      <c r="H77" s="40" t="s">
+        <v>0</v>
+      </c>
+      <c r="I77" s="39" t="s">
+        <v>0</v>
+      </c>
+      <c r="K77" s="38">
         <v>52</v>
       </c>
-      <c r="L77" s="39" t="s">
-        <v>0</v>
-      </c>
-      <c r="M77" s="39" t="s">
-        <v>0</v>
-      </c>
-      <c r="N77" s="39" t="s">
-        <v>0</v>
-      </c>
-      <c r="O77" s="39" t="s">
-        <v>0</v>
-      </c>
-      <c r="P77" s="40">
+      <c r="L77" s="36" t="s">
+        <v>0</v>
+      </c>
+      <c r="M77" s="36" t="s">
+        <v>0</v>
+      </c>
+      <c r="N77" s="36" t="s">
+        <v>0</v>
+      </c>
+      <c r="O77" s="36" t="s">
+        <v>0</v>
+      </c>
+      <c r="P77" s="37">
         <v>0.5</v>
       </c>
-      <c r="Q77" s="39" t="s">
-        <v>0</v>
-      </c>
-      <c r="R77" s="38">
+      <c r="Q77" s="36" t="s">
+        <v>0</v>
+      </c>
+      <c r="R77" s="35">
         <v>52.5</v>
       </c>
-      <c r="S77" s="15" t="s">
+      <c r="S77" s="110" t="s">
         <v>4</v>
       </c>
       <c r="T77" s="1"/>
-      <c r="U77" s="49" t="s">
+      <c r="U77" s="45" t="s">
         <v>7</v>
       </c>
-      <c r="V77" s="48">
+      <c r="V77" s="44">
         <v>0.5</v>
       </c>
-      <c r="W77" s="47">
+      <c r="W77" s="43">
         <v>52</v>
       </c>
-      <c r="X77" s="25">
+      <c r="X77" s="23">
         <v>9</v>
       </c>
       <c r="Y77" s="10"/>
@@ -16078,55 +16072,55 @@
       <c r="AG77" s="1"/>
       <c r="AH77" s="1"/>
     </row>
-    <row r="78" spans="1:34" s="2" customFormat="1" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:34" s="2" customFormat="1" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A78" s="1"/>
-      <c r="B78" s="37"/>
-      <c r="C78" s="36">
+      <c r="B78" s="108"/>
+      <c r="C78" s="34">
         <v>5</v>
       </c>
-      <c r="D78" s="36">
+      <c r="D78" s="34">
         <v>9</v>
       </c>
-      <c r="E78" s="36">
+      <c r="E78" s="34">
         <v>27</v>
       </c>
-      <c r="F78" s="35" t="s">
+      <c r="F78" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="G78" s="34" t="s">
+      <c r="G78" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="H78" s="34">
+      <c r="H78" s="32">
         <v>66</v>
       </c>
-      <c r="I78" s="33">
+      <c r="I78" s="31">
         <v>1</v>
       </c>
-      <c r="K78" s="32">
+      <c r="K78" s="30">
         <v>52</v>
       </c>
-      <c r="L78" s="30" t="s">
-        <v>0</v>
-      </c>
-      <c r="M78" s="30" t="s">
-        <v>0</v>
-      </c>
-      <c r="N78" s="30" t="s">
-        <v>0</v>
-      </c>
-      <c r="O78" s="30" t="s">
-        <v>0</v>
-      </c>
-      <c r="P78" s="31">
+      <c r="L78" s="28" t="s">
+        <v>0</v>
+      </c>
+      <c r="M78" s="28" t="s">
+        <v>0</v>
+      </c>
+      <c r="N78" s="28" t="s">
+        <v>0</v>
+      </c>
+      <c r="O78" s="28" t="s">
+        <v>0</v>
+      </c>
+      <c r="P78" s="29">
         <v>0.5</v>
       </c>
-      <c r="Q78" s="30" t="s">
-        <v>0</v>
-      </c>
-      <c r="R78" s="29">
+      <c r="Q78" s="28" t="s">
+        <v>0</v>
+      </c>
+      <c r="R78" s="27">
         <v>52.5</v>
       </c>
-      <c r="S78" s="15"/>
+      <c r="S78" s="110"/>
       <c r="T78" s="1"/>
       <c r="U78" s="14" t="s">
         <v>6</v>
@@ -16150,64 +16144,64 @@
       <c r="AG78" s="1"/>
       <c r="AH78" s="1"/>
     </row>
-    <row r="79" spans="1:34" s="2" customFormat="1" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:34" s="2" customFormat="1" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A79" s="1"/>
-      <c r="B79" s="24"/>
-      <c r="C79" s="23">
+      <c r="B79" s="109"/>
+      <c r="C79" s="22">
         <v>5</v>
       </c>
-      <c r="D79" s="23">
+      <c r="D79" s="22">
         <v>9</v>
       </c>
-      <c r="E79" s="23" t="s">
-        <v>0</v>
-      </c>
-      <c r="F79" s="22"/>
-      <c r="G79" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="H79" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="I79" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="K79" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="L79" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="M79" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="N79" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="O79" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="P79" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q79" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="R79" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="S79" s="15"/>
+      <c r="E79" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="F79" s="21"/>
+      <c r="G79" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="H79" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="I79" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="K79" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="L79" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="M79" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="N79" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="O79" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="P79" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q79" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="R79" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="S79" s="110"/>
       <c r="T79" s="1"/>
-      <c r="U79" s="28" t="s">
-        <v>0</v>
-      </c>
-      <c r="V79" s="27" t="s">
-        <v>0</v>
-      </c>
-      <c r="W79" s="26" t="s">
-        <v>0</v>
-      </c>
-      <c r="X79" s="25">
+      <c r="U79" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="V79" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="W79" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="X79" s="23">
         <v>9</v>
       </c>
       <c r="Y79" s="10"/>
@@ -16220,57 +16214,57 @@
       <c r="AG79" s="1"/>
       <c r="AH79" s="1"/>
     </row>
-    <row r="80" spans="1:34" s="2" customFormat="1" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:34" s="2" customFormat="1" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A80" s="1"/>
-      <c r="B80" s="46">
+      <c r="B80" s="107">
         <v>6</v>
       </c>
-      <c r="C80" s="45">
+      <c r="C80" s="42">
         <v>6</v>
       </c>
-      <c r="D80" s="45">
+      <c r="D80" s="42">
         <v>11</v>
       </c>
-      <c r="E80" s="45">
+      <c r="E80" s="42">
         <v>1056</v>
       </c>
-      <c r="F80" s="44" t="s">
+      <c r="F80" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="G80" s="43" t="s">
+      <c r="G80" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="H80" s="43">
+      <c r="H80" s="40">
         <v>291</v>
       </c>
-      <c r="I80" s="42">
-        <v>0</v>
-      </c>
-      <c r="K80" s="41">
+      <c r="I80" s="39">
+        <v>0</v>
+      </c>
+      <c r="K80" s="38">
         <v>38.400000000000006</v>
       </c>
-      <c r="L80" s="39" t="s">
-        <v>0</v>
-      </c>
-      <c r="M80" s="39" t="s">
-        <v>0</v>
-      </c>
-      <c r="N80" s="39" t="s">
-        <v>0</v>
-      </c>
-      <c r="O80" s="39" t="s">
-        <v>0</v>
-      </c>
-      <c r="P80" s="40">
-        <v>0</v>
-      </c>
-      <c r="Q80" s="39" t="s">
-        <v>0</v>
-      </c>
-      <c r="R80" s="38">
+      <c r="L80" s="36" t="s">
+        <v>0</v>
+      </c>
+      <c r="M80" s="36" t="s">
+        <v>0</v>
+      </c>
+      <c r="N80" s="36" t="s">
+        <v>0</v>
+      </c>
+      <c r="O80" s="36" t="s">
+        <v>0</v>
+      </c>
+      <c r="P80" s="37">
+        <v>0</v>
+      </c>
+      <c r="Q80" s="36" t="s">
+        <v>0</v>
+      </c>
+      <c r="R80" s="35">
         <v>38.400000000000006</v>
       </c>
-      <c r="S80" s="15" t="s">
+      <c r="S80" s="110" t="s">
         <v>4</v>
       </c>
       <c r="T80" s="1"/>
@@ -16296,66 +16290,66 @@
       <c r="AG80" s="1"/>
       <c r="AH80" s="1"/>
     </row>
-    <row r="81" spans="1:34" s="2" customFormat="1" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:34" s="2" customFormat="1" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A81" s="1"/>
-      <c r="B81" s="37"/>
-      <c r="C81" s="36">
+      <c r="B81" s="108"/>
+      <c r="C81" s="34">
         <v>6</v>
       </c>
-      <c r="D81" s="36">
+      <c r="D81" s="34">
         <v>11</v>
       </c>
-      <c r="E81" s="36">
+      <c r="E81" s="34">
         <v>933</v>
       </c>
-      <c r="F81" s="35" t="s">
+      <c r="F81" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="G81" s="34" t="s">
+      <c r="G81" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="H81" s="34">
+      <c r="H81" s="32">
         <v>115</v>
       </c>
-      <c r="I81" s="33">
+      <c r="I81" s="31">
         <v>0.5</v>
       </c>
-      <c r="K81" s="32">
+      <c r="K81" s="30">
         <v>38.400000000000006</v>
       </c>
-      <c r="L81" s="30" t="s">
-        <v>0</v>
-      </c>
-      <c r="M81" s="30" t="s">
-        <v>0</v>
-      </c>
-      <c r="N81" s="30" t="s">
-        <v>0</v>
-      </c>
-      <c r="O81" s="30" t="s">
-        <v>0</v>
-      </c>
-      <c r="P81" s="31">
-        <v>0</v>
-      </c>
-      <c r="Q81" s="30" t="s">
-        <v>0</v>
-      </c>
-      <c r="R81" s="29">
+      <c r="L81" s="28" t="s">
+        <v>0</v>
+      </c>
+      <c r="M81" s="28" t="s">
+        <v>0</v>
+      </c>
+      <c r="N81" s="28" t="s">
+        <v>0</v>
+      </c>
+      <c r="O81" s="28" t="s">
+        <v>0</v>
+      </c>
+      <c r="P81" s="29">
+        <v>0</v>
+      </c>
+      <c r="Q81" s="28" t="s">
+        <v>0</v>
+      </c>
+      <c r="R81" s="27">
         <v>38.400000000000006</v>
       </c>
-      <c r="S81" s="15"/>
+      <c r="S81" s="110"/>
       <c r="T81" s="1"/>
-      <c r="U81" s="28" t="s">
+      <c r="U81" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="V81" s="27">
-        <v>0</v>
-      </c>
-      <c r="W81" s="26" t="s">
-        <v>0</v>
-      </c>
-      <c r="X81" s="25">
+      <c r="V81" s="25">
+        <v>0</v>
+      </c>
+      <c r="W81" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="X81" s="23">
         <v>11</v>
       </c>
       <c r="Y81" s="10"/>
@@ -16368,53 +16362,53 @@
       <c r="AG81" s="1"/>
       <c r="AH81" s="1"/>
     </row>
-    <row r="82" spans="1:34" s="2" customFormat="1" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:34" s="2" customFormat="1" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A82" s="1"/>
-      <c r="B82" s="24"/>
-      <c r="C82" s="23">
+      <c r="B82" s="109"/>
+      <c r="C82" s="22">
         <v>6</v>
       </c>
-      <c r="D82" s="23">
+      <c r="D82" s="22">
         <v>11</v>
       </c>
-      <c r="E82" s="23" t="s">
-        <v>0</v>
-      </c>
-      <c r="F82" s="22"/>
-      <c r="G82" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="H82" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="I82" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="K82" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="L82" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="M82" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="N82" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="O82" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="P82" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q82" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="R82" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="S82" s="15"/>
+      <c r="E82" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="F82" s="21"/>
+      <c r="G82" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="H82" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="I82" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="K82" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="L82" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="M82" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="N82" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="O82" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="P82" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q82" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="R82" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="S82" s="110"/>
       <c r="T82" s="1"/>
       <c r="U82" s="14" t="s">
         <v>0</v>
@@ -16438,7 +16432,7 @@
       <c r="AG82" s="1"/>
       <c r="AH82" s="1"/>
     </row>
-    <row r="83" spans="1:34" s="2" customFormat="1" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:34" s="2" customFormat="1" ht="11.1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A83" s="1"/>
       <c r="B83" s="9"/>
       <c r="C83" s="9"/>
@@ -16477,26 +16471,45 @@
   </sheetData>
   <sheetProtection formatCells="0" selectLockedCells="1"/>
   <mergeCells count="73">
-    <mergeCell ref="B80:B82"/>
-    <mergeCell ref="S80:S82"/>
-    <mergeCell ref="B71:B73"/>
-    <mergeCell ref="S71:S73"/>
-    <mergeCell ref="B74:B76"/>
-    <mergeCell ref="S74:S76"/>
-    <mergeCell ref="U63:W63"/>
-    <mergeCell ref="B65:B67"/>
-    <mergeCell ref="S65:S67"/>
-    <mergeCell ref="B68:B70"/>
-    <mergeCell ref="S68:S70"/>
-    <mergeCell ref="B77:B79"/>
-    <mergeCell ref="S77:S79"/>
-    <mergeCell ref="U62:W62"/>
-    <mergeCell ref="B58:B60"/>
-    <mergeCell ref="S58:S60"/>
-    <mergeCell ref="B52:B54"/>
-    <mergeCell ref="S52:S54"/>
-    <mergeCell ref="B55:B57"/>
-    <mergeCell ref="S55:S57"/>
+    <mergeCell ref="J7:S7"/>
+    <mergeCell ref="J8:O8"/>
+    <mergeCell ref="P8:S8"/>
+    <mergeCell ref="J2:S2"/>
+    <mergeCell ref="J3:S3"/>
+    <mergeCell ref="J4:S4"/>
+    <mergeCell ref="J5:S5"/>
+    <mergeCell ref="J6:S6"/>
+    <mergeCell ref="J9:O9"/>
+    <mergeCell ref="P9:S9"/>
+    <mergeCell ref="J11:S11"/>
+    <mergeCell ref="J12:S12"/>
+    <mergeCell ref="B13:I13"/>
+    <mergeCell ref="J13:S13"/>
+    <mergeCell ref="J10:O10"/>
+    <mergeCell ref="P10:S10"/>
+    <mergeCell ref="U15:W15"/>
+    <mergeCell ref="U16:W16"/>
+    <mergeCell ref="B18:B20"/>
+    <mergeCell ref="S18:S20"/>
+    <mergeCell ref="B21:B23"/>
+    <mergeCell ref="S21:S23"/>
+    <mergeCell ref="B30:B32"/>
+    <mergeCell ref="S30:S32"/>
+    <mergeCell ref="B33:B35"/>
+    <mergeCell ref="S33:S35"/>
+    <mergeCell ref="B24:B26"/>
+    <mergeCell ref="S24:S26"/>
+    <mergeCell ref="B27:B29"/>
+    <mergeCell ref="S27:S29"/>
+    <mergeCell ref="U37:W37"/>
+    <mergeCell ref="B38:B41"/>
+    <mergeCell ref="E38:E41"/>
+    <mergeCell ref="F38:F41"/>
+    <mergeCell ref="G38:G41"/>
+    <mergeCell ref="H38:H41"/>
+    <mergeCell ref="I38:I41"/>
+    <mergeCell ref="K38:K41"/>
+    <mergeCell ref="U38:W41"/>
     <mergeCell ref="B46:B48"/>
     <mergeCell ref="S46:S48"/>
     <mergeCell ref="B49:B51"/>
@@ -16511,45 +16524,26 @@
     <mergeCell ref="O38:O41"/>
     <mergeCell ref="P38:P41"/>
     <mergeCell ref="Q38:Q41"/>
-    <mergeCell ref="U37:W37"/>
-    <mergeCell ref="B38:B41"/>
-    <mergeCell ref="E38:E41"/>
-    <mergeCell ref="F38:F41"/>
-    <mergeCell ref="G38:G41"/>
-    <mergeCell ref="H38:H41"/>
-    <mergeCell ref="I38:I41"/>
-    <mergeCell ref="K38:K41"/>
-    <mergeCell ref="U38:W41"/>
-    <mergeCell ref="B30:B32"/>
-    <mergeCell ref="S30:S32"/>
-    <mergeCell ref="B33:B35"/>
-    <mergeCell ref="S33:S35"/>
-    <mergeCell ref="B24:B26"/>
-    <mergeCell ref="S24:S26"/>
-    <mergeCell ref="B27:B29"/>
-    <mergeCell ref="S27:S29"/>
-    <mergeCell ref="U15:W15"/>
-    <mergeCell ref="U16:W16"/>
-    <mergeCell ref="B18:B20"/>
-    <mergeCell ref="S18:S20"/>
-    <mergeCell ref="B21:B23"/>
-    <mergeCell ref="S21:S23"/>
-    <mergeCell ref="J9:O9"/>
-    <mergeCell ref="P9:S9"/>
-    <mergeCell ref="J11:S11"/>
-    <mergeCell ref="J12:S12"/>
-    <mergeCell ref="B13:I13"/>
-    <mergeCell ref="J13:S13"/>
-    <mergeCell ref="J10:O10"/>
-    <mergeCell ref="P10:S10"/>
-    <mergeCell ref="J2:S2"/>
-    <mergeCell ref="J3:S3"/>
-    <mergeCell ref="J4:S4"/>
-    <mergeCell ref="J5:S5"/>
-    <mergeCell ref="J6:S6"/>
-    <mergeCell ref="J7:S7"/>
-    <mergeCell ref="J8:O8"/>
-    <mergeCell ref="P8:S8"/>
+    <mergeCell ref="U62:W62"/>
+    <mergeCell ref="B58:B60"/>
+    <mergeCell ref="S58:S60"/>
+    <mergeCell ref="B52:B54"/>
+    <mergeCell ref="S52:S54"/>
+    <mergeCell ref="B55:B57"/>
+    <mergeCell ref="S55:S57"/>
+    <mergeCell ref="U63:W63"/>
+    <mergeCell ref="B65:B67"/>
+    <mergeCell ref="S65:S67"/>
+    <mergeCell ref="B68:B70"/>
+    <mergeCell ref="S68:S70"/>
+    <mergeCell ref="B80:B82"/>
+    <mergeCell ref="S80:S82"/>
+    <mergeCell ref="B71:B73"/>
+    <mergeCell ref="S71:S73"/>
+    <mergeCell ref="B74:B76"/>
+    <mergeCell ref="S74:S76"/>
+    <mergeCell ref="B77:B79"/>
+    <mergeCell ref="S77:S79"/>
   </mergeCells>
   <conditionalFormatting sqref="U18:X35 U43:X60 U65:X82">
     <cfRule type="expression" dxfId="5" priority="6">
